--- a/data/trans_orig/P6704-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6704-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E3C4148-E0BB-43BF-8F9B-A1A022D7EC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{330F81C4-E356-4DC8-A348-56EFA37A57BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E2983DFC-F237-4BB6-B58A-8881E1B2E9CB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F74AD7FA-B25A-4A60-82E4-52FF6BECBA59}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="814">
   <si>
     <t>Población según si le cuata olvidar los problemas del trabajo en 2012 (Tasa respuesta: 33,79%)</t>
   </si>
@@ -76,2367 +76,2358 @@
     <t>21,24%</t>
   </si>
   <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
   </si>
   <si>
     <t>24,94%</t>
   </si>
   <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
   </si>
   <si>
     <t>23,14%</t>
   </si>
   <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le cuata olvidar los problemas del trabajo en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
     <t>17,13%</t>
   </si>
   <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>Población según si le cuata olvidar los problemas del trabajo en 2023 (Tasa respuesta: 10,34%)</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
   </si>
   <si>
     <t>22,72%</t>
   </si>
   <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le cuata olvidar los problemas del trabajo en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>Población según si le cuata olvidar los problemas del trabajo en 2023 (Tasa respuesta: 10,34%)</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
     <t>31,42%</t>
   </si>
   <si>
@@ -2474,9 +2465,6 @@
   </si>
   <si>
     <t>12,44%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
   </si>
   <si>
     <t>7,82%</t>
@@ -2903,7 +2891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF550915-3529-41BE-896D-7DF12A5D7777}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE83E33-58AB-43BD-BC83-F5D514B694F2}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3404,10 +3392,10 @@
         <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>124</v>
@@ -3416,13 +3404,13 @@
         <v>133447</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,13 +3425,13 @@
         <v>99759</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>80</v>
@@ -3452,13 +3440,13 @@
         <v>84631</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>179</v>
@@ -3467,13 +3455,13 @@
         <v>184390</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3488,13 +3476,13 @@
         <v>54929</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -3503,13 +3491,13 @@
         <v>50260</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>103</v>
@@ -3518,13 +3506,13 @@
         <v>105189</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,13 +3527,13 @@
         <v>67567</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -3554,13 +3542,13 @@
         <v>32156</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>92</v>
@@ -3569,13 +3557,13 @@
         <v>99723</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,7 +3619,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3643,13 +3631,13 @@
         <v>60565</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -3658,13 +3646,13 @@
         <v>62647</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>117</v>
@@ -3673,13 +3661,13 @@
         <v>123212</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,13 +3682,13 @@
         <v>80726</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>48</v>
@@ -3709,13 +3697,13 @@
         <v>50667</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>123</v>
@@ -3724,13 +3712,13 @@
         <v>131393</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,13 +3733,13 @@
         <v>150134</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>83</v>
@@ -3760,13 +3748,13 @@
         <v>85679</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>228</v>
@@ -3775,13 +3763,13 @@
         <v>235814</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,13 +3784,13 @@
         <v>70141</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -3811,13 +3799,13 @@
         <v>34447</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>104</v>
@@ -3826,13 +3814,13 @@
         <v>104588</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,13 +3835,13 @@
         <v>61844</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>46</v>
@@ -3862,13 +3850,13 @@
         <v>49423</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>106</v>
@@ -3877,13 +3865,13 @@
         <v>111267</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,7 +3927,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3951,13 +3939,13 @@
         <v>75713</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H22" s="7">
         <v>57</v>
@@ -3966,13 +3954,13 @@
         <v>66486</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M22" s="7">
         <v>121</v>
@@ -3981,13 +3969,13 @@
         <v>142199</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,13 +3990,13 @@
         <v>61147</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>29</v>
@@ -4017,13 +4005,13 @@
         <v>33123</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>82</v>
@@ -4176,7 +4164,7 @@
         <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>192</v>
+        <v>124</v>
       </c>
       <c r="M26" s="7">
         <v>70</v>
@@ -4185,13 +4173,13 @@
         <v>81069</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,7 +4235,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4259,13 +4247,13 @@
         <v>30710</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -4274,13 +4262,13 @@
         <v>12737</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M28" s="7">
         <v>40</v>
@@ -4289,13 +4277,13 @@
         <v>43446</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,13 +4298,13 @@
         <v>21565</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -4325,13 +4313,13 @@
         <v>9253</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M29" s="7">
         <v>30</v>
@@ -4340,13 +4328,13 @@
         <v>30819</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>74</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,13 +4349,13 @@
         <v>50097</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -4376,13 +4364,13 @@
         <v>24605</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M30" s="7">
         <v>68</v>
@@ -4391,13 +4379,13 @@
         <v>74702</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,13 +4400,13 @@
         <v>29577</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>222</v>
+        <v>156</v>
       </c>
       <c r="H31" s="7">
         <v>15</v>
@@ -4427,13 +4415,13 @@
         <v>15981</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M31" s="7">
         <v>41</v>
@@ -4442,13 +4430,13 @@
         <v>45558</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,13 +4451,13 @@
         <v>25402</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -4478,13 +4466,13 @@
         <v>7115</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M32" s="7">
         <v>31</v>
@@ -4493,13 +4481,13 @@
         <v>32517</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,7 +4543,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4567,13 +4555,13 @@
         <v>1017</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -4582,13 +4570,13 @@
         <v>981</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>238</v>
-      </c>
       <c r="L34" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -4597,13 +4585,13 @@
         <v>1998</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4618,13 +4606,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -4633,13 +4621,13 @@
         <v>967</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -4648,13 +4636,13 @@
         <v>967</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,13 +4657,13 @@
         <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -4684,13 +4672,13 @@
         <v>891</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -4699,13 +4687,13 @@
         <v>891</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,13 +4708,13 @@
         <v>1999</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -4735,13 +4723,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -4750,13 +4738,13 @@
         <v>1999</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4771,13 +4759,13 @@
         <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -4786,13 +4774,13 @@
         <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -4801,13 +4789,13 @@
         <v>0</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4875,13 +4863,13 @@
         <v>264360</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H40" s="7">
         <v>204</v>
@@ -4890,13 +4878,13 @@
         <v>221866</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M40" s="7">
         <v>446</v>
@@ -4905,13 +4893,13 @@
         <v>486225</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4926,13 +4914,13 @@
         <v>258212</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H41" s="7">
         <v>151</v>
@@ -4941,13 +4929,13 @@
         <v>163024</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M41" s="7">
         <v>390</v>
@@ -4956,13 +4944,13 @@
         <v>421235</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +4965,13 @@
         <v>441591</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H42" s="7">
         <v>253</v>
@@ -4992,13 +4980,13 @@
         <v>272953</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M42" s="7">
         <v>676</v>
@@ -5007,13 +4995,13 @@
         <v>714544</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,13 +5016,13 @@
         <v>228348</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H43" s="7">
         <v>142</v>
@@ -5043,13 +5031,13 @@
         <v>151640</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M43" s="7">
         <v>360</v>
@@ -5058,13 +5046,13 @@
         <v>379988</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,13 +5067,13 @@
         <v>223097</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>198</v>
+        <v>294</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="H44" s="7">
         <v>120</v>
@@ -5094,13 +5082,13 @@
         <v>132941</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M44" s="7">
         <v>327</v>
@@ -5109,13 +5097,13 @@
         <v>356038</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5171,7 +5159,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -5193,7 +5181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05291F72-62E1-4A03-9EB4-EAF5908621EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E0DB78-F00A-45FF-916D-D014127C4A57}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5210,7 +5198,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5317,13 +5305,13 @@
         <v>23351</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -5332,13 +5320,13 @@
         <v>25592</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>304</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M4" s="7">
         <v>48</v>
@@ -5347,13 +5335,13 @@
         <v>48943</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,13 +5356,13 @@
         <v>8560</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -5383,13 +5371,13 @@
         <v>16998</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M5" s="7">
         <v>25</v>
@@ -5398,13 +5386,13 @@
         <v>25557</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,13 +5407,13 @@
         <v>20669</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -5434,13 +5422,13 @@
         <v>25704</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M6" s="7">
         <v>46</v>
@@ -5449,13 +5437,13 @@
         <v>46374</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5470,10 +5458,10 @@
         <v>22121</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>328</v>
+        <v>110</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>329</v>
@@ -5503,10 +5491,10 @@
         <v>333</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>334</v>
+        <v>293</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5521,13 +5509,13 @@
         <v>4408</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>336</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>337</v>
+        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -5536,13 +5524,13 @@
         <v>9668</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="M8" s="7">
         <v>14</v>
@@ -5551,13 +5539,13 @@
         <v>14077</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>22</v>
+        <v>339</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,13 +5613,13 @@
         <v>74318</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="H10" s="7">
         <v>67</v>
@@ -5640,13 +5628,13 @@
         <v>66275</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M10" s="7">
         <v>137</v>
@@ -5655,13 +5643,13 @@
         <v>140593</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>351</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,13 +5664,13 @@
         <v>58976</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H11" s="7">
         <v>62</v>
@@ -5691,13 +5679,13 @@
         <v>58884</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M11" s="7">
         <v>119</v>
@@ -5706,13 +5694,13 @@
         <v>117860</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,13 +5715,13 @@
         <v>98840</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H12" s="7">
         <v>73</v>
@@ -5742,13 +5730,13 @@
         <v>70435</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M12" s="7">
         <v>167</v>
@@ -5757,13 +5745,13 @@
         <v>169276</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,13 +5766,13 @@
         <v>71850</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -5793,13 +5781,13 @@
         <v>50409</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M13" s="7">
         <v>122</v>
@@ -5808,13 +5796,13 @@
         <v>122259</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5921,7 +5909,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5936,10 +5924,10 @@
         <v>383</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>384</v>
+        <v>289</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>385</v>
+        <v>256</v>
       </c>
       <c r="H16" s="7">
         <v>88</v>
@@ -5948,13 +5936,13 @@
         <v>86826</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>387</v>
+        <v>356</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="M16" s="7">
         <v>187</v>
@@ -5963,13 +5951,13 @@
         <v>188844</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>317</v>
+        <v>387</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5984,13 +5972,13 @@
         <v>89341</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="H17" s="7">
         <v>54</v>
@@ -5999,13 +5987,13 @@
         <v>54019</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>395</v>
+        <v>136</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M17" s="7">
         <v>139</v>
@@ -6014,13 +6002,13 @@
         <v>143360</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,13 +6023,13 @@
         <v>133131</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H18" s="7">
         <v>100</v>
@@ -6050,13 +6038,13 @@
         <v>97987</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="M18" s="7">
         <v>225</v>
@@ -6065,13 +6053,13 @@
         <v>231118</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,13 +6074,13 @@
         <v>84968</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H19" s="7">
         <v>53</v>
@@ -6101,13 +6089,13 @@
         <v>55277</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M19" s="7">
         <v>134</v>
@@ -6116,13 +6104,13 @@
         <v>140245</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>116</v>
+        <v>413</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6137,13 +6125,13 @@
         <v>50130</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H20" s="7">
         <v>24</v>
@@ -6152,13 +6140,13 @@
         <v>23305</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="M20" s="7">
         <v>71</v>
@@ -6167,13 +6155,13 @@
         <v>73435</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,7 +6217,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6241,13 +6229,13 @@
         <v>90789</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="H22" s="7">
         <v>51</v>
@@ -6256,13 +6244,13 @@
         <v>57052</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="M22" s="7">
         <v>130</v>
@@ -6271,7 +6259,7 @@
         <v>147840</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>70</v>
+        <v>429</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>430</v>
@@ -6430,7 +6418,7 @@
         <v>457</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6445,13 +6433,13 @@
         <v>45698</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="H26" s="7">
         <v>22</v>
@@ -6460,13 +6448,13 @@
         <v>24096</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="M26" s="7">
         <v>62</v>
@@ -6475,13 +6463,13 @@
         <v>69794</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6537,7 +6525,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6549,13 +6537,13 @@
         <v>37330</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>467</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>26</v>
+        <v>468</v>
       </c>
       <c r="H28" s="7">
         <v>21</v>
@@ -6564,10 +6552,10 @@
         <v>24709</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>469</v>
+        <v>55</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>470</v>
@@ -6585,7 +6573,7 @@
         <v>472</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>276</v>
+        <v>473</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6600,7 +6588,7 @@
         <v>28462</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>474</v>
@@ -6618,10 +6606,10 @@
         <v>476</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>88</v>
+        <v>477</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M29" s="7">
         <v>44</v>
@@ -6630,13 +6618,13 @@
         <v>52248</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6651,13 +6639,13 @@
         <v>62950</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H30" s="7">
         <v>23</v>
@@ -6666,13 +6654,13 @@
         <v>26346</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M30" s="7">
         <v>78</v>
@@ -6681,13 +6669,13 @@
         <v>89295</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6702,13 +6690,13 @@
         <v>17426</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>492</v>
+        <v>181</v>
       </c>
       <c r="H31" s="7">
         <v>15</v>
@@ -6717,13 +6705,13 @@
         <v>18476</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>493</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>494</v>
+        <v>384</v>
       </c>
       <c r="M31" s="7">
         <v>31</v>
@@ -6732,13 +6720,13 @@
         <v>35902</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6753,13 +6741,13 @@
         <v>19558</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>500</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -6768,13 +6756,13 @@
         <v>12562</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>503</v>
       </c>
       <c r="M32" s="7">
         <v>28</v>
@@ -6783,13 +6771,13 @@
         <v>32120</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>506</v>
+        <v>438</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6845,7 +6833,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6857,13 +6845,13 @@
         <v>1236</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>507</v>
+        <v>326</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -6872,13 +6860,13 @@
         <v>905</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>319</v>
+        <v>505</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -6887,13 +6875,13 @@
         <v>2141</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>186</v>
+        <v>507</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6908,13 +6896,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -6923,13 +6911,13 @@
         <v>1049</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -6938,13 +6926,13 @@
         <v>1049</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6959,13 +6947,13 @@
         <v>795</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6974,13 +6962,13 @@
         <v>0</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -6989,13 +6977,13 @@
         <v>795</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7010,13 +6998,13 @@
         <v>3008</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -7025,13 +7013,13 @@
         <v>1183</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
@@ -7040,13 +7028,13 @@
         <v>4192</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>524</v>
+        <v>134</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7061,13 +7049,13 @@
         <v>946</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>334</v>
+        <v>395</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -7076,13 +7064,13 @@
         <v>2054</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -7091,13 +7079,13 @@
         <v>2999</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7168,10 +7156,10 @@
         <v>54</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H40" s="7">
         <v>254</v>
@@ -7180,13 +7168,13 @@
         <v>261359</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="M40" s="7">
         <v>559</v>
@@ -7195,13 +7183,13 @@
         <v>590401</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>109</v>
+        <v>536</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7216,13 +7204,13 @@
         <v>244539</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>355</v>
+        <v>538</v>
       </c>
       <c r="F41" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>541</v>
       </c>
       <c r="H41" s="7">
         <v>191</v>
@@ -7231,13 +7219,13 @@
         <v>195079</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>544</v>
       </c>
       <c r="M41" s="7">
         <v>420</v>
@@ -7246,13 +7234,13 @@
         <v>439618</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7267,13 +7255,13 @@
         <v>427682</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>549</v>
       </c>
       <c r="H42" s="7">
         <v>297</v>
@@ -7282,13 +7270,13 @@
         <v>300983</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>551</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>552</v>
       </c>
       <c r="M42" s="7">
         <v>693</v>
@@ -7297,13 +7285,13 @@
         <v>728665</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7318,13 +7306,13 @@
         <v>260118</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>556</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="H43" s="7">
         <v>174</v>
@@ -7333,13 +7321,13 @@
         <v>180353</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>560</v>
       </c>
       <c r="M43" s="7">
         <v>419</v>
@@ -7348,13 +7336,13 @@
         <v>440471</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>561</v>
+        <v>248</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7369,13 +7357,13 @@
         <v>160941</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>564</v>
+        <v>236</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>565</v>
+        <v>494</v>
       </c>
       <c r="H44" s="7">
         <v>97</v>
@@ -7384,13 +7372,13 @@
         <v>99398</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>566</v>
+        <v>211</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="M44" s="7">
         <v>245</v>
@@ -7399,13 +7387,13 @@
         <v>260339</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>501</v>
+        <v>566</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7461,7 +7449,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -7483,7 +7471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BCA275-F3D5-478F-B679-C4290542451A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBA25F2-03A2-4F00-A217-4461AD1BD885}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7500,7 +7488,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7607,13 +7595,13 @@
         <v>9166</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -7622,13 +7610,13 @@
         <v>7593</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>571</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -7637,13 +7625,13 @@
         <v>16758</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7658,13 +7646,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>579</v>
+        <v>99</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -7673,13 +7661,13 @@
         <v>3076</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>164</v>
+        <v>571</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>576</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -7688,13 +7676,13 @@
         <v>3077</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7709,13 +7697,13 @@
         <v>5201</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -7724,13 +7712,13 @@
         <v>11714</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="M6" s="7">
         <v>12</v>
@@ -7739,13 +7727,13 @@
         <v>16915</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>588</v>
+        <v>110</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7760,13 +7748,13 @@
         <v>8219</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -7775,13 +7763,13 @@
         <v>2905</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>326</v>
+        <v>590</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -7790,13 +7778,13 @@
         <v>11123</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7811,13 +7799,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>579</v>
+        <v>99</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -7826,13 +7814,13 @@
         <v>3454</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -7841,13 +7829,13 @@
         <v>3454</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>75</v>
+        <v>597</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7915,13 +7903,13 @@
         <v>42643</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>600</v>
+        <v>512</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -7930,13 +7918,13 @@
         <v>33693</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
@@ -7945,13 +7933,13 @@
         <v>76335</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7966,13 +7954,13 @@
         <v>13668</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -7981,13 +7969,13 @@
         <v>15255</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>612</v>
+        <v>486</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
@@ -7996,13 +7984,13 @@
         <v>28922</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>466</v>
+        <v>611</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>616</v>
+        <v>530</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8017,13 +8005,13 @@
         <v>33102</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>562</v>
+        <v>168</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
@@ -8035,10 +8023,10 @@
         <v>62</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M12" s="7">
         <v>40</v>
@@ -8047,13 +8035,13 @@
         <v>51646</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>621</v>
+        <v>186</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8068,13 +8056,13 @@
         <v>9023</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -8083,13 +8071,13 @@
         <v>9077</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -8098,13 +8086,13 @@
         <v>18101</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8119,13 +8107,13 @@
         <v>12306</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -8134,13 +8122,13 @@
         <v>13766</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>635</v>
+        <v>518</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -8149,13 +8137,13 @@
         <v>26072</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8211,7 +8199,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8223,13 +8211,13 @@
         <v>35643</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>117</v>
+        <v>636</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
@@ -8238,13 +8226,13 @@
         <v>32895</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="M16" s="7">
         <v>78</v>
@@ -8253,13 +8241,13 @@
         <v>68538</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8274,13 +8262,13 @@
         <v>20557</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -8289,13 +8277,13 @@
         <v>15967</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>654</v>
+        <v>79</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
@@ -8304,13 +8292,13 @@
         <v>36524</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8328,10 +8316,10 @@
         <v>62</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>286</v>
+        <v>651</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="H18" s="7">
         <v>33</v>
@@ -8340,13 +8328,13 @@
         <v>23107</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>660</v>
+        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>56</v>
@@ -8355,13 +8343,13 @@
         <v>45335</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8376,13 +8364,13 @@
         <v>17711</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>546</v>
+        <v>658</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -8391,13 +8379,13 @@
         <v>16245</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>371</v>
+        <v>663</v>
       </c>
       <c r="M19" s="7">
         <v>40</v>
@@ -8406,13 +8394,13 @@
         <v>33956</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>356</v>
+        <v>664</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8427,13 +8415,13 @@
         <v>12151</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -8442,13 +8430,13 @@
         <v>11512</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>675</v>
+        <v>427</v>
       </c>
       <c r="M20" s="7">
         <v>25</v>
@@ -8457,13 +8445,13 @@
         <v>23664</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>373</v>
+        <v>674</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8519,7 +8507,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8531,13 +8519,13 @@
         <v>103943</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="H22" s="7">
         <v>67</v>
@@ -8546,13 +8534,13 @@
         <v>43141</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="M22" s="7">
         <v>120</v>
@@ -8561,13 +8549,13 @@
         <v>147084</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8582,13 +8570,13 @@
         <v>16744</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
@@ -8597,13 +8585,13 @@
         <v>19744</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>546</v>
+        <v>658</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="M23" s="7">
         <v>50</v>
@@ -8612,13 +8600,13 @@
         <v>36487</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>192</v>
+        <v>691</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8633,13 +8621,13 @@
         <v>33415</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>694</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>695</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H24" s="7">
         <v>52</v>
@@ -8648,13 +8636,13 @@
         <v>32493</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>697</v>
-      </c>
       <c r="L24" s="7" t="s">
-        <v>698</v>
+        <v>399</v>
       </c>
       <c r="M24" s="7">
         <v>86</v>
@@ -8663,13 +8651,13 @@
         <v>65909</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>699</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8684,13 +8672,13 @@
         <v>15503</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>702</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>704</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
@@ -8699,13 +8687,13 @@
         <v>15322</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>705</v>
+        <v>25</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="M25" s="7">
         <v>36</v>
@@ -8714,13 +8702,13 @@
         <v>30825</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8735,13 +8723,13 @@
         <v>11736</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>710</v>
+        <v>461</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -8750,13 +8738,13 @@
         <v>9979</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>715</v>
+        <v>197</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
@@ -8765,13 +8753,13 @@
         <v>21715</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8827,7 +8815,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8839,13 +8827,13 @@
         <v>18275</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -8854,13 +8842,13 @@
         <v>9359</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="M28" s="7">
         <v>35</v>
@@ -8869,13 +8857,13 @@
         <v>27634</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8890,13 +8878,13 @@
         <v>14866</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -8905,13 +8893,13 @@
         <v>7192</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="M29" s="7">
         <v>28</v>
@@ -8920,13 +8908,13 @@
         <v>22057</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>734</v>
+        <v>75</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8941,13 +8929,13 @@
         <v>23878</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="H30" s="7">
         <v>25</v>
@@ -8956,13 +8944,13 @@
         <v>15538</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="M30" s="7">
         <v>50</v>
@@ -8971,13 +8959,13 @@
         <v>39416</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>405</v>
+        <v>735</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8992,13 +8980,13 @@
         <v>5935</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>745</v>
+        <v>72</v>
       </c>
       <c r="H31" s="7">
         <v>9</v>
@@ -9010,10 +8998,10 @@
         <v>21</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>567</v>
+        <v>740</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>369</v>
+        <v>741</v>
       </c>
       <c r="M31" s="7">
         <v>16</v>
@@ -9022,13 +9010,13 @@
         <v>11794</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9043,13 +9031,13 @@
         <v>6383</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -9058,13 +9046,13 @@
         <v>2115</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="M32" s="7">
         <v>10</v>
@@ -9073,13 +9061,13 @@
         <v>8498</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9135,7 +9123,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9147,13 +9135,13 @@
         <v>607</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -9162,13 +9150,13 @@
         <v>2299</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -9177,13 +9165,13 @@
         <v>2906</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9198,13 +9186,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -9213,13 +9201,13 @@
         <v>471</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -9228,13 +9216,13 @@
         <v>471</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>165</v>
+        <v>764</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9249,13 +9237,13 @@
         <v>3020</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>155</v>
+        <v>766</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -9264,13 +9252,13 @@
         <v>905</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>769</v>
+        <v>457</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="M36" s="7">
         <v>7</v>
@@ -9279,13 +9267,13 @@
         <v>3924</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>166</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9300,13 +9288,13 @@
         <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
@@ -9315,13 +9303,13 @@
         <v>1725</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -9330,13 +9318,13 @@
         <v>1725</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>334</v>
+        <v>395</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9351,13 +9339,13 @@
         <v>833</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -9366,13 +9354,13 @@
         <v>1062</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -9381,13 +9369,13 @@
         <v>1895</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9455,13 +9443,13 @@
         <v>210276</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="H40" s="7">
         <v>167</v>
@@ -9470,13 +9458,13 @@
         <v>128981</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>788</v>
+        <v>56</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="M40" s="7">
         <v>304</v>
@@ -9485,13 +9473,13 @@
         <v>339257</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9506,13 +9494,13 @@
         <v>65834</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>134</v>
+        <v>789</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>794</v>
+        <v>38</v>
       </c>
       <c r="H41" s="7">
         <v>85</v>
@@ -9524,10 +9512,10 @@
         <v>166</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>451</v>
+        <v>791</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M41" s="7">
         <v>149</v>
@@ -9536,13 +9524,13 @@
         <v>127538</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>795</v>
+        <v>477</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>794</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9557,13 +9545,13 @@
         <v>120844</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>796</v>
+        <v>29</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>256</v>
+        <v>792</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="H42" s="7">
         <v>138</v>
@@ -9572,13 +9560,13 @@
         <v>102301</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>36</v>
+        <v>795</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="M42" s="7">
         <v>251</v>
@@ -9587,13 +9575,13 @@
         <v>223145</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9608,10 +9596,10 @@
         <v>56391</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>178</v>
@@ -9623,13 +9611,13 @@
         <v>51133</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>134</v>
+        <v>789</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="M43" s="7">
         <v>116</v>
@@ -9638,13 +9626,13 @@
         <v>107525</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9659,13 +9647,13 @@
         <v>43409</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="H44" s="7">
         <v>51</v>
@@ -9674,13 +9662,13 @@
         <v>41888</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>812</v>
+        <v>193</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="M44" s="7">
         <v>84</v>
@@ -9689,13 +9677,13 @@
         <v>85298</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9751,7 +9739,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6704-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6704-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{330F81C4-E356-4DC8-A348-56EFA37A57BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B466729-36A9-4D6F-9CDD-149DF4C45530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F74AD7FA-B25A-4A60-82E4-52FF6BECBA59}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1D357B0F-52EA-4FE1-BC62-F9716933AE99}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="805">
   <si>
     <t>Población según si le cuata olvidar los problemas del trabajo en 2012 (Tasa respuesta: 33,79%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>21,24%</t>
   </si>
   <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
   </si>
   <si>
     <t>24,94%</t>
   </si>
   <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
   </si>
   <si>
     <t>23,14%</t>
   </si>
   <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -106,2380 +106,2353 @@
     <t>14,62%</t>
   </si>
   <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
   </si>
   <si>
     <t>20,76%</t>
   </si>
   <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le cuata olvidar los problemas del trabajo en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>Población según si le cuata olvidar los problemas del trabajo en 2023 (Tasa respuesta: 10,34%)</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
     <t>12,7%</t>
   </si>
   <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
   </si>
   <si>
     <t>24,33%</t>
   </si>
   <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le cuata olvidar los problemas del trabajo en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
   </si>
   <si>
     <t>20,89%</t>
   </si>
   <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>Población según si le cuata olvidar los problemas del trabajo en 2023 (Tasa respuesta: 10,34%)</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
+    <t>28,83%</t>
   </si>
   <si>
     <t>11,35%</t>
   </si>
   <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
   </si>
   <si>
     <t>8,74%</t>
   </si>
   <si>
-    <t>5,68%</t>
+    <t>5,87%</t>
   </si>
   <si>
     <t>12,44%</t>
   </si>
   <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
+    <t>8,09%</t>
   </si>
   <si>
     <t>9,66%</t>
   </si>
   <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
   </si>
 </sst>
 </file>
@@ -2891,7 +2864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE83E33-58AB-43BD-BC83-F5D514B694F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC0B344-007E-4A76-9890-7B80A09D1A52}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3359,7 +3332,7 @@
         <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,13 +3347,13 @@
         <v>82658</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>46</v>
@@ -3389,13 +3362,13 @@
         <v>50789</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>124</v>
@@ -3404,13 +3377,13 @@
         <v>133447</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,13 +3398,13 @@
         <v>99759</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>80</v>
@@ -3440,13 +3413,13 @@
         <v>84631</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>179</v>
@@ -3455,13 +3428,13 @@
         <v>184390</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,13 +3449,13 @@
         <v>54929</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -3491,13 +3464,13 @@
         <v>50260</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>103</v>
@@ -3506,13 +3479,13 @@
         <v>105189</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,13 +3500,13 @@
         <v>67567</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -3542,13 +3515,13 @@
         <v>32156</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>92</v>
@@ -3557,13 +3530,13 @@
         <v>99723</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,7 +3592,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3631,13 +3604,13 @@
         <v>60565</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -3646,13 +3619,13 @@
         <v>62647</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>117</v>
@@ -3661,13 +3634,13 @@
         <v>123212</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,13 +3655,13 @@
         <v>80726</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>48</v>
@@ -3697,13 +3670,13 @@
         <v>50667</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>123</v>
@@ -3712,13 +3685,13 @@
         <v>131393</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,13 +3706,13 @@
         <v>150134</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>83</v>
@@ -3748,13 +3721,13 @@
         <v>85679</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>228</v>
@@ -3763,13 +3736,13 @@
         <v>235814</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,13 +3757,13 @@
         <v>70141</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -3799,13 +3772,13 @@
         <v>34447</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>104</v>
@@ -3814,13 +3787,13 @@
         <v>104588</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3835,13 +3808,13 @@
         <v>61844</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>46</v>
@@ -3850,13 +3823,13 @@
         <v>49423</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>106</v>
@@ -3865,13 +3838,13 @@
         <v>111267</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,7 +3900,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3939,13 +3912,13 @@
         <v>75713</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H22" s="7">
         <v>57</v>
@@ -3954,13 +3927,13 @@
         <v>66486</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M22" s="7">
         <v>121</v>
@@ -3969,10 +3942,10 @@
         <v>142199</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>161</v>
@@ -3993,10 +3966,10 @@
         <v>162</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="H23" s="7">
         <v>29</v>
@@ -4011,7 +3984,7 @@
         <v>165</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>82</v>
@@ -4020,13 +3993,13 @@
         <v>94270</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,13 +4014,13 @@
         <v>114750</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>56</v>
@@ -4056,13 +4029,13 @@
         <v>64715</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>162</v>
@@ -4071,13 +4044,13 @@
         <v>179465</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,13 +4065,13 @@
         <v>56568</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H25" s="7">
         <v>31</v>
@@ -4107,13 +4080,13 @@
         <v>36016</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M25" s="7">
         <v>81</v>
@@ -4122,7 +4095,7 @@
         <v>92584</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>185</v>
@@ -4164,7 +4137,7 @@
         <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>70</v>
@@ -4173,13 +4146,13 @@
         <v>81069</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,7 +4208,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4247,13 +4220,13 @@
         <v>30710</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -4262,13 +4235,13 @@
         <v>12737</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M28" s="7">
         <v>40</v>
@@ -4277,13 +4250,13 @@
         <v>43446</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,13 +4271,13 @@
         <v>21565</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -4313,13 +4286,13 @@
         <v>9253</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M29" s="7">
         <v>30</v>
@@ -4328,13 +4301,13 @@
         <v>30819</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,13 +4322,13 @@
         <v>50097</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -4364,13 +4337,13 @@
         <v>24605</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M30" s="7">
         <v>68</v>
@@ -4379,13 +4352,13 @@
         <v>74702</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4400,13 +4373,13 @@
         <v>29577</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>156</v>
+        <v>225</v>
       </c>
       <c r="H31" s="7">
         <v>15</v>
@@ -4415,13 +4388,13 @@
         <v>15981</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M31" s="7">
         <v>41</v>
@@ -4430,13 +4403,13 @@
         <v>45558</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>229</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4451,13 +4424,13 @@
         <v>25402</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -4466,13 +4439,13 @@
         <v>7115</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M32" s="7">
         <v>31</v>
@@ -4481,13 +4454,13 @@
         <v>32517</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,7 +4516,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4555,13 +4528,13 @@
         <v>1017</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -4570,13 +4543,13 @@
         <v>981</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -4588,7 +4561,7 @@
         <v>243</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>244</v>
@@ -4606,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>245</v>
@@ -4624,10 +4597,10 @@
         <v>247</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -4639,7 +4612,7 @@
         <v>248</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>249</v>
@@ -4657,7 +4630,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>245</v>
@@ -4675,10 +4648,10 @@
         <v>250</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -4690,7 +4663,7 @@
         <v>251</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>252</v>
@@ -4711,10 +4684,10 @@
         <v>253</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -4723,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>245</v>
@@ -4741,7 +4714,7 @@
         <v>254</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>255</v>
@@ -4759,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>245</v>
@@ -4774,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>245</v>
@@ -4789,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>245</v>
@@ -4893,13 +4866,13 @@
         <v>486225</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4914,13 +4887,13 @@
         <v>258212</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H41" s="7">
         <v>151</v>
@@ -4929,13 +4902,13 @@
         <v>163024</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M41" s="7">
         <v>390</v>
@@ -4944,13 +4917,13 @@
         <v>421235</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,13 +4938,13 @@
         <v>441591</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H42" s="7">
         <v>253</v>
@@ -4980,13 +4953,13 @@
         <v>272953</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M42" s="7">
         <v>676</v>
@@ -4995,13 +4968,13 @@
         <v>714544</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,13 +4989,13 @@
         <v>228348</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H43" s="7">
         <v>142</v>
@@ -5031,13 +5004,13 @@
         <v>151640</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M43" s="7">
         <v>360</v>
@@ -5046,13 +5019,13 @@
         <v>379988</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5067,13 +5040,13 @@
         <v>223097</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H44" s="7">
         <v>120</v>
@@ -5082,13 +5055,13 @@
         <v>132941</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="K44" s="7" t="s">
-        <v>297</v>
-      </c>
       <c r="L44" s="7" t="s">
-        <v>298</v>
+        <v>63</v>
       </c>
       <c r="M44" s="7">
         <v>327</v>
@@ -5097,13 +5070,13 @@
         <v>356038</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5159,7 +5132,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -5181,7 +5154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E0DB78-F00A-45FF-916D-D014127C4A57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{975AAF7F-99FD-461A-B12F-465E94DAC682}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5198,7 +5171,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5305,13 +5278,13 @@
         <v>23351</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>305</v>
+        <v>238</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -5320,13 +5293,13 @@
         <v>25592</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>305</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M4" s="7">
         <v>48</v>
@@ -5335,13 +5308,13 @@
         <v>48943</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5356,13 +5329,13 @@
         <v>8560</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -5371,7 +5344,7 @@
         <v>16998</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>212</v>
+        <v>313</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>314</v>
@@ -5461,7 +5434,7 @@
         <v>328</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>329</v>
@@ -5491,10 +5464,10 @@
         <v>333</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5509,13 +5482,13 @@
         <v>4408</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>185</v>
+        <v>338</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -5524,13 +5497,13 @@
         <v>9668</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M8" s="7">
         <v>14</v>
@@ -5539,13 +5512,13 @@
         <v>14077</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>341</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,13 +5586,13 @@
         <v>74318</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H10" s="7">
         <v>67</v>
@@ -5628,13 +5601,13 @@
         <v>66275</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M10" s="7">
         <v>137</v>
@@ -5643,13 +5616,13 @@
         <v>140593</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>305</v>
+        <v>351</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>220</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,13 +5637,13 @@
         <v>58976</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="H11" s="7">
         <v>62</v>
@@ -5679,13 +5652,13 @@
         <v>58884</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M11" s="7">
         <v>119</v>
@@ -5694,13 +5667,13 @@
         <v>117860</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,13 +5688,13 @@
         <v>98840</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H12" s="7">
         <v>73</v>
@@ -5730,13 +5703,13 @@
         <v>70435</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M12" s="7">
         <v>167</v>
@@ -5745,13 +5718,13 @@
         <v>169276</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>217</v>
+        <v>367</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5766,13 +5739,13 @@
         <v>71850</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -5781,13 +5754,13 @@
         <v>50409</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="M13" s="7">
         <v>122</v>
@@ -5796,13 +5769,13 @@
         <v>122259</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5817,13 +5790,13 @@
         <v>40202</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -5832,13 +5805,13 @@
         <v>27712</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M14" s="7">
         <v>67</v>
@@ -5847,13 +5820,13 @@
         <v>67914</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5909,7 +5882,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5921,13 +5894,13 @@
         <v>102018</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>289</v>
+        <v>387</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>256</v>
+        <v>388</v>
       </c>
       <c r="H16" s="7">
         <v>88</v>
@@ -5936,13 +5909,13 @@
         <v>86826</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>356</v>
+        <v>390</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="M16" s="7">
         <v>187</v>
@@ -5951,13 +5924,13 @@
         <v>188844</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5972,13 +5945,13 @@
         <v>89341</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="H17" s="7">
         <v>54</v>
@@ -5987,13 +5960,13 @@
         <v>54019</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>392</v>
+        <v>38</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>136</v>
+        <v>398</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>393</v>
+        <v>70</v>
       </c>
       <c r="M17" s="7">
         <v>139</v>
@@ -6002,13 +5975,13 @@
         <v>143360</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6023,13 +5996,13 @@
         <v>133131</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="H18" s="7">
         <v>100</v>
@@ -6038,13 +6011,13 @@
         <v>97987</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="M18" s="7">
         <v>225</v>
@@ -6053,13 +6026,13 @@
         <v>231118</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,13 +6047,13 @@
         <v>84968</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H19" s="7">
         <v>53</v>
@@ -6089,13 +6062,13 @@
         <v>55277</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="M19" s="7">
         <v>134</v>
@@ -6104,13 +6077,13 @@
         <v>140245</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,13 +6098,13 @@
         <v>50130</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="H20" s="7">
         <v>24</v>
@@ -6140,13 +6113,13 @@
         <v>23305</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="M20" s="7">
         <v>71</v>
@@ -6155,13 +6128,13 @@
         <v>73435</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6217,7 +6190,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6229,13 +6202,13 @@
         <v>90789</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="H22" s="7">
         <v>51</v>
@@ -6244,13 +6217,13 @@
         <v>57052</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="M22" s="7">
         <v>130</v>
@@ -6259,13 +6232,13 @@
         <v>147840</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>430</v>
+        <v>166</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,13 +6253,13 @@
         <v>59200</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H23" s="7">
         <v>37</v>
@@ -6295,13 +6268,13 @@
         <v>40343</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="M23" s="7">
         <v>92</v>
@@ -6310,13 +6283,13 @@
         <v>99543</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,13 +6304,13 @@
         <v>111297</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="H24" s="7">
         <v>75</v>
@@ -6346,13 +6319,13 @@
         <v>80511</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="M24" s="7">
         <v>176</v>
@@ -6361,13 +6334,13 @@
         <v>191808</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6382,13 +6355,13 @@
         <v>60745</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>452</v>
+        <v>354</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -6397,13 +6370,13 @@
         <v>41116</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M25" s="7">
         <v>94</v>
@@ -6412,13 +6385,13 @@
         <v>101861</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>457</v>
+        <v>386</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>189</v>
+        <v>459</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6433,13 +6406,13 @@
         <v>45698</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>105</v>
+        <v>460</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="H26" s="7">
         <v>22</v>
@@ -6448,13 +6421,13 @@
         <v>24096</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="M26" s="7">
         <v>62</v>
@@ -6463,13 +6436,13 @@
         <v>69794</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6525,7 +6498,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6537,13 +6510,13 @@
         <v>37330</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>467</v>
+        <v>266</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H28" s="7">
         <v>21</v>
@@ -6552,13 +6525,13 @@
         <v>24709</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="M28" s="7">
         <v>55</v>
@@ -6567,13 +6540,13 @@
         <v>62039</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>472</v>
+        <v>431</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6588,13 +6561,13 @@
         <v>28462</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="H29" s="7">
         <v>20</v>
@@ -6603,13 +6576,13 @@
         <v>23786</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="M29" s="7">
         <v>44</v>
@@ -6618,13 +6591,13 @@
         <v>52248</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6639,13 +6612,13 @@
         <v>62950</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H30" s="7">
         <v>23</v>
@@ -6654,13 +6627,13 @@
         <v>26346</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M30" s="7">
         <v>78</v>
@@ -6669,13 +6642,13 @@
         <v>89295</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6690,13 +6663,13 @@
         <v>17426</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>181</v>
+        <v>495</v>
       </c>
       <c r="H31" s="7">
         <v>15</v>
@@ -6705,13 +6678,13 @@
         <v>18476</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>384</v>
+        <v>497</v>
       </c>
       <c r="M31" s="7">
         <v>31</v>
@@ -6720,13 +6693,13 @@
         <v>35902</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>494</v>
+        <v>150</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>496</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6741,13 +6714,13 @@
         <v>19558</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>499</v>
+        <v>294</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -6756,13 +6729,13 @@
         <v>12562</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>423</v>
+        <v>501</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="M32" s="7">
         <v>28</v>
@@ -6771,13 +6744,13 @@
         <v>32120</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>438</v>
+        <v>506</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6833,7 +6806,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6845,13 +6818,13 @@
         <v>1236</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>326</v>
+        <v>507</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -6860,13 +6833,13 @@
         <v>905</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>505</v>
+        <v>71</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -6875,13 +6848,13 @@
         <v>2141</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6896,7 +6869,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>245</v>
@@ -6911,13 +6884,13 @@
         <v>1049</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -6926,13 +6899,13 @@
         <v>1049</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6947,13 +6920,13 @@
         <v>795</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6962,13 +6935,13 @@
         <v>0</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>245</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -6977,13 +6950,13 @@
         <v>795</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6998,13 +6971,13 @@
         <v>3008</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -7013,13 +6986,13 @@
         <v>1183</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
@@ -7028,13 +7001,13 @@
         <v>4192</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>134</v>
+        <v>321</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7049,13 +7022,13 @@
         <v>946</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>395</v>
+        <v>527</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -7064,13 +7037,13 @@
         <v>2054</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -7079,13 +7052,13 @@
         <v>2999</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7156,10 +7129,10 @@
         <v>54</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>530</v>
+        <v>259</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="H40" s="7">
         <v>254</v>
@@ -7168,13 +7141,13 @@
         <v>261359</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>532</v>
+        <v>215</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="M40" s="7">
         <v>559</v>
@@ -7183,13 +7156,13 @@
         <v>590401</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7204,13 +7177,13 @@
         <v>244539</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="H41" s="7">
         <v>191</v>
@@ -7219,13 +7192,13 @@
         <v>195079</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>542</v>
+        <v>248</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>543</v>
+        <v>401</v>
       </c>
       <c r="M41" s="7">
         <v>420</v>
@@ -7237,7 +7210,7 @@
         <v>544</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>66</v>
+        <v>441</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>545</v>
@@ -7285,13 +7258,13 @@
         <v>728665</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>553</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7306,10 +7279,10 @@
         <v>260118</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>556</v>
@@ -7336,10 +7309,10 @@
         <v>440471</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>248</v>
+        <v>462</v>
       </c>
       <c r="Q43" s="7" t="s">
         <v>560</v>
@@ -7360,10 +7333,10 @@
         <v>561</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>236</v>
+        <v>562</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>494</v>
+        <v>147</v>
       </c>
       <c r="H44" s="7">
         <v>97</v>
@@ -7372,13 +7345,13 @@
         <v>99398</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>211</v>
+        <v>563</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>563</v>
+        <v>466</v>
       </c>
       <c r="M44" s="7">
         <v>245</v>
@@ -7387,13 +7360,13 @@
         <v>260339</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>566</v>
+        <v>504</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7449,7 +7422,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -7471,7 +7444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBA25F2-03A2-4F00-A217-4461AD1BD885}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4D7A94-6FF0-4DD2-A00D-269C59D54B5A}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7598,10 +7571,10 @@
         <v>568</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>570</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -7613,10 +7586,10 @@
         <v>256</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>571</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>572</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -7625,13 +7598,13 @@
         <v>16758</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>574</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7646,13 +7619,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>575</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -7661,10 +7634,10 @@
         <v>3076</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>571</v>
+        <v>232</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>576</v>
@@ -7676,13 +7649,13 @@
         <v>3077</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>577</v>
+        <v>209</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>227</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7697,13 +7670,13 @@
         <v>5201</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>579</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>580</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -7712,13 +7685,13 @@
         <v>11714</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>582</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>583</v>
       </c>
       <c r="M6" s="7">
         <v>12</v>
@@ -7727,10 +7700,10 @@
         <v>16915</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>584</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>585</v>
@@ -7766,7 +7739,7 @@
         <v>589</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>590</v>
@@ -7799,13 +7772,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>245</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>99</v>
+        <v>575</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -7817,7 +7790,7 @@
         <v>594</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>595</v>
@@ -7832,7 +7805,7 @@
         <v>596</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>597</v>
@@ -7903,13 +7876,13 @@
         <v>42643</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>512</v>
+        <v>598</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -7918,10 +7891,10 @@
         <v>33693</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>601</v>
+        <v>491</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>602</v>
@@ -7969,13 +7942,13 @@
         <v>15255</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>486</v>
+        <v>609</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
@@ -7984,13 +7957,13 @@
         <v>28922</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>530</v>
+        <v>614</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8005,13 +7978,13 @@
         <v>33102</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>168</v>
+        <v>616</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
@@ -8023,10 +7996,10 @@
         <v>62</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>615</v>
+        <v>426</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>275</v>
+        <v>618</v>
       </c>
       <c r="M12" s="7">
         <v>40</v>
@@ -8035,13 +8008,13 @@
         <v>51646</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>186</v>
+        <v>620</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8056,13 +8029,13 @@
         <v>9023</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -8071,13 +8044,13 @@
         <v>9077</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -8086,13 +8059,13 @@
         <v>18101</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8107,13 +8080,13 @@
         <v>12306</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -8122,13 +8095,13 @@
         <v>13766</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>518</v>
+        <v>633</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -8137,13 +8110,13 @@
         <v>26072</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8199,7 +8172,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8211,13 +8184,13 @@
         <v>35643</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
@@ -8226,13 +8199,13 @@
         <v>32895</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="M16" s="7">
         <v>78</v>
@@ -8241,13 +8214,13 @@
         <v>68538</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8262,13 +8235,13 @@
         <v>20557</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -8277,13 +8250,13 @@
         <v>15967</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>648</v>
+        <v>237</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
@@ -8292,13 +8265,13 @@
         <v>36524</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>632</v>
+        <v>653</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>650</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8316,10 +8289,10 @@
         <v>62</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="H18" s="7">
         <v>33</v>
@@ -8328,13 +8301,13 @@
         <v>23107</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>653</v>
+        <v>93</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>654</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>656</v>
       </c>
       <c r="M18" s="7">
         <v>56</v>
@@ -8343,13 +8316,13 @@
         <v>45335</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>656</v>
+        <v>376</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8364,13 +8337,13 @@
         <v>17711</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -8379,13 +8352,13 @@
         <v>16245</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>662</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>663</v>
+        <v>374</v>
       </c>
       <c r="M19" s="7">
         <v>40</v>
@@ -8394,13 +8367,13 @@
         <v>33956</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>665</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8415,13 +8388,13 @@
         <v>12151</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>667</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>668</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>669</v>
+        <v>238</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -8430,13 +8403,13 @@
         <v>11512</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>670</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="M20" s="7">
         <v>25</v>
@@ -8445,13 +8418,13 @@
         <v>23664</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>672</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>673</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8507,7 +8480,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8519,13 +8492,13 @@
         <v>103943</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>676</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>677</v>
       </c>
       <c r="H22" s="7">
         <v>67</v>
@@ -8534,13 +8507,13 @@
         <v>43141</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>678</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>680</v>
       </c>
       <c r="M22" s="7">
         <v>120</v>
@@ -8549,13 +8522,13 @@
         <v>147084</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>681</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8570,13 +8543,13 @@
         <v>16744</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>684</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>685</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>686</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
@@ -8585,13 +8558,13 @@
         <v>19744</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="M23" s="7">
         <v>50</v>
@@ -8600,13 +8573,13 @@
         <v>36487</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>689</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8621,13 +8594,13 @@
         <v>33415</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>692</v>
+        <v>105</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="H24" s="7">
         <v>52</v>
@@ -8636,13 +8609,13 @@
         <v>32493</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>696</v>
+        <v>326</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>399</v>
+        <v>693</v>
       </c>
       <c r="M24" s="7">
         <v>86</v>
@@ -8651,13 +8624,13 @@
         <v>65909</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8672,13 +8645,13 @@
         <v>15503</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>700</v>
+        <v>206</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
@@ -8687,13 +8660,13 @@
         <v>15322</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>25</v>
+        <v>699</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>703</v>
+        <v>622</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>704</v>
+        <v>581</v>
       </c>
       <c r="M25" s="7">
         <v>36</v>
@@ -8702,13 +8675,13 @@
         <v>30825</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8723,13 +8696,13 @@
         <v>11736</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>461</v>
+        <v>702</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -8738,13 +8711,13 @@
         <v>9979</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>197</v>
+        <v>707</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
@@ -8753,13 +8726,13 @@
         <v>21715</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8815,7 +8788,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8827,13 +8800,13 @@
         <v>18275</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>715</v>
+        <v>659</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -8842,13 +8815,13 @@
         <v>9359</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>718</v>
+        <v>193</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="M28" s="7">
         <v>35</v>
@@ -8857,13 +8830,13 @@
         <v>27634</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>722</v>
+        <v>639</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8878,13 +8851,13 @@
         <v>14866</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>615</v>
+        <v>718</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -8893,13 +8866,13 @@
         <v>7192</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="M29" s="7">
         <v>28</v>
@@ -8908,13 +8881,13 @@
         <v>22057</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>75</v>
+        <v>295</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8929,13 +8902,13 @@
         <v>23878</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>160</v>
+        <v>726</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="H30" s="7">
         <v>25</v>
@@ -8944,13 +8917,13 @@
         <v>15538</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="M30" s="7">
         <v>50</v>
@@ -8959,13 +8932,13 @@
         <v>39416</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8980,13 +8953,13 @@
         <v>5935</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="H31" s="7">
         <v>9</v>
@@ -8998,10 +8971,10 @@
         <v>21</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="M31" s="7">
         <v>16</v>
@@ -9010,13 +8983,13 @@
         <v>11794</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9031,13 +9004,13 @@
         <v>6383</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>747</v>
+        <v>186</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -9046,13 +9019,13 @@
         <v>2115</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="M32" s="7">
         <v>10</v>
@@ -9061,13 +9034,13 @@
         <v>8498</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>633</v>
+        <v>35</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>752</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9123,7 +9096,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9135,13 +9108,13 @@
         <v>607</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>753</v>
+        <v>287</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -9150,13 +9123,13 @@
         <v>2299</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -9165,13 +9138,13 @@
         <v>2906</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9186,13 +9159,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>245</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>761</v>
+        <v>218</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -9201,13 +9174,13 @@
         <v>471</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -9216,13 +9189,13 @@
         <v>471</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>764</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9237,13 +9210,13 @@
         <v>3020</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>765</v>
+        <v>582</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -9252,13 +9225,13 @@
         <v>905</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>457</v>
+        <v>757</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="M36" s="7">
         <v>7</v>
@@ -9267,13 +9240,13 @@
         <v>3924</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>768</v>
+        <v>446</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9288,13 +9261,13 @@
         <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>245</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>761</v>
+        <v>218</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
@@ -9303,13 +9276,13 @@
         <v>1725</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -9318,13 +9291,13 @@
         <v>1725</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>395</v>
+        <v>527</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9339,13 +9312,13 @@
         <v>833</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -9354,13 +9327,13 @@
         <v>1062</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>777</v>
+        <v>63</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -9369,13 +9342,13 @@
         <v>1895</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9443,13 +9416,13 @@
         <v>210276</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>783</v>
+        <v>472</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
       <c r="H40" s="7">
         <v>167</v>
@@ -9458,13 +9431,13 @@
         <v>128981</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>56</v>
+        <v>773</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="M40" s="7">
         <v>304</v>
@@ -9473,13 +9446,13 @@
         <v>339257</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>488</v>
+        <v>777</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9494,13 +9467,13 @@
         <v>65834</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>38</v>
+        <v>781</v>
       </c>
       <c r="H41" s="7">
         <v>85</v>
@@ -9509,13 +9482,13 @@
         <v>61704</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>791</v>
+        <v>436</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>389</v>
+        <v>782</v>
       </c>
       <c r="M41" s="7">
         <v>149</v>
@@ -9524,13 +9497,13 @@
         <v>127538</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>477</v>
+        <v>783</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>687</v>
+        <v>784</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9545,13 +9518,13 @@
         <v>120844</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>29</v>
+        <v>785</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="H42" s="7">
         <v>138</v>
@@ -9560,13 +9533,13 @@
         <v>102301</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>795</v>
+        <v>264</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="M42" s="7">
         <v>251</v>
@@ -9575,13 +9548,13 @@
         <v>223145</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9596,13 +9569,13 @@
         <v>56391</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>178</v>
+        <v>795</v>
       </c>
       <c r="H43" s="7">
         <v>68</v>
@@ -9611,13 +9584,13 @@
         <v>51133</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>803</v>
+        <v>659</v>
       </c>
       <c r="M43" s="7">
         <v>116</v>
@@ -9626,13 +9599,13 @@
         <v>107525</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>805</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9647,13 +9620,13 @@
         <v>43409</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="H44" s="7">
         <v>51</v>
@@ -9662,13 +9635,13 @@
         <v>41888</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>193</v>
+        <v>108</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>810</v>
+        <v>88</v>
       </c>
       <c r="M44" s="7">
         <v>84</v>
@@ -9677,13 +9650,13 @@
         <v>85298</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9739,7 +9712,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6704-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6704-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B466729-36A9-4D6F-9CDD-149DF4C45530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33372C03-5691-490F-8B02-0EB138F29609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1D357B0F-52EA-4FE1-BC62-F9716933AE99}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{82EC21A7-A587-49F6-9153-A2F398C9AF54}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="805">
-  <si>
-    <t>Población según si le cuata olvidar los problemas del trabajo en 2012 (Tasa respuesta: 33,79%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="818">
+  <si>
+    <t>Población según si le cuesta olvidar los problemas del trabajo en 2012 (Tasa respuesta: 33,79%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -76,2383 +76,2422 @@
     <t>21,24%</t>
   </si>
   <si>
-    <t>13,36%</t>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le cuesta olvidar los problemas del trabajo en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>Población según si le cuesta olvidar los problemas del trabajo en 2023 (Tasa respuesta: 10,34%)</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
   </si>
   <si>
     <t>32,21%</t>
   </si>
   <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>14,62%</t>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
   </si>
   <si>
     <t>7,51%</t>
   </si>
   <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le cuata olvidar los problemas del trabajo en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>Población según si le cuata olvidar los problemas del trabajo en 2023 (Tasa respuesta: 10,34%)</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
+    <t>12,14%</t>
   </si>
 </sst>
 </file>
@@ -2864,7 +2903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC0B344-007E-4A76-9890-7B80A09D1A52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CDA0C3-74A2-43D5-BC83-B7FCF5417313}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3332,7 +3371,7 @@
         <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,13 +3386,13 @@
         <v>82658</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>46</v>
@@ -3362,10 +3401,10 @@
         <v>50789</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>75</v>
@@ -3518,10 +3557,10 @@
         <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>92</v>
@@ -3530,13 +3569,13 @@
         <v>99723</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,7 +3631,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3604,13 +3643,13 @@
         <v>60565</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -3619,13 +3658,13 @@
         <v>62647</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>117</v>
@@ -3634,13 +3673,13 @@
         <v>123212</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,13 +3694,13 @@
         <v>80726</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>48</v>
@@ -3670,13 +3709,13 @@
         <v>50667</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>123</v>
@@ -3685,13 +3724,13 @@
         <v>131393</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,13 +3745,13 @@
         <v>150134</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>83</v>
@@ -3721,13 +3760,13 @@
         <v>85679</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>228</v>
@@ -3736,13 +3775,13 @@
         <v>235814</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +3796,13 @@
         <v>70141</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -3772,13 +3811,13 @@
         <v>34447</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>104</v>
@@ -3787,13 +3826,13 @@
         <v>104588</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,13 +3847,13 @@
         <v>61844</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>46</v>
@@ -3823,13 +3862,13 @@
         <v>49423</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>106</v>
@@ -3838,13 +3877,13 @@
         <v>111267</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,7 +3939,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3912,13 +3951,13 @@
         <v>75713</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>57</v>
@@ -3927,13 +3966,13 @@
         <v>66486</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>121</v>
@@ -3942,13 +3981,13 @@
         <v>142199</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,13 +4002,13 @@
         <v>61147</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H23" s="7">
         <v>29</v>
@@ -3978,13 +4017,13 @@
         <v>33123</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>82</v>
@@ -3993,13 +4032,13 @@
         <v>94270</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,13 +4053,13 @@
         <v>114750</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>56</v>
@@ -4029,13 +4068,13 @@
         <v>64715</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>162</v>
@@ -4044,13 +4083,13 @@
         <v>179465</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,13 +4104,13 @@
         <v>56568</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H25" s="7">
         <v>31</v>
@@ -4080,13 +4119,13 @@
         <v>36016</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M25" s="7">
         <v>81</v>
@@ -4095,7 +4134,7 @@
         <v>92584</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>123</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>185</v>
@@ -4256,7 +4295,7 @@
         <v>203</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>204</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,13 +4310,13 @@
         <v>21565</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -4286,13 +4325,13 @@
         <v>9253</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M29" s="7">
         <v>30</v>
@@ -4301,13 +4340,13 @@
         <v>30819</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>213</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,13 +4361,13 @@
         <v>50097</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -4337,13 +4376,13 @@
         <v>24605</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M30" s="7">
         <v>68</v>
@@ -4352,13 +4391,13 @@
         <v>74702</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,13 +4412,13 @@
         <v>29577</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H31" s="7">
         <v>15</v>
@@ -4388,13 +4427,13 @@
         <v>15981</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M31" s="7">
         <v>41</v>
@@ -4403,13 +4442,13 @@
         <v>45558</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>67</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,13 +4463,13 @@
         <v>25402</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>231</v>
+        <v>66</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -4439,13 +4478,13 @@
         <v>7115</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M32" s="7">
         <v>31</v>
@@ -4457,10 +4496,10 @@
         <v>88</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,7 +4555,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4528,13 +4567,13 @@
         <v>1017</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -4543,13 +4582,13 @@
         <v>981</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>178</v>
+        <v>240</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -4558,13 +4597,13 @@
         <v>1998</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,13 +4618,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -4594,13 +4633,13 @@
         <v>967</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -4609,13 +4648,13 @@
         <v>967</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4630,13 +4669,13 @@
         <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -4645,13 +4684,13 @@
         <v>891</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -4660,13 +4699,13 @@
         <v>891</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4681,13 +4720,13 @@
         <v>1999</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -4696,13 +4735,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -4711,13 +4750,13 @@
         <v>1999</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,13 +4771,13 @@
         <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -4747,13 +4786,13 @@
         <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -4762,13 +4801,13 @@
         <v>0</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,13 +4875,13 @@
         <v>264360</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H40" s="7">
         <v>204</v>
@@ -4851,13 +4890,13 @@
         <v>221866</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M40" s="7">
         <v>446</v>
@@ -4866,13 +4905,13 @@
         <v>486225</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>166</v>
+        <v>261</v>
       </c>
       <c r="P40" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4887,13 +4926,13 @@
         <v>258212</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H41" s="7">
         <v>151</v>
@@ -4902,13 +4941,13 @@
         <v>163024</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M41" s="7">
         <v>390</v>
@@ -4917,13 +4956,13 @@
         <v>421235</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,13 +4977,13 @@
         <v>441591</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H42" s="7">
         <v>253</v>
@@ -4953,13 +4992,13 @@
         <v>272953</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M42" s="7">
         <v>676</v>
@@ -4968,13 +5007,13 @@
         <v>714544</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,13 +5028,13 @@
         <v>228348</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H43" s="7">
         <v>142</v>
@@ -5004,13 +5043,13 @@
         <v>151640</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M43" s="7">
         <v>360</v>
@@ -5019,13 +5058,13 @@
         <v>379988</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,13 +5079,13 @@
         <v>223097</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>293</v>
+        <v>198</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H44" s="7">
         <v>120</v>
@@ -5055,13 +5094,13 @@
         <v>132941</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>63</v>
+        <v>294</v>
       </c>
       <c r="M44" s="7">
         <v>327</v>
@@ -5070,13 +5109,13 @@
         <v>356038</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,7 +5171,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -5154,7 +5193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{975AAF7F-99FD-461A-B12F-465E94DAC682}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21009213-C121-4D75-83BB-D8D7FCEA8DCE}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5171,7 +5210,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5278,13 +5317,13 @@
         <v>23351</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -5293,13 +5332,13 @@
         <v>25592</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M4" s="7">
         <v>48</v>
@@ -5308,13 +5347,13 @@
         <v>48943</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,13 +5368,13 @@
         <v>8560</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -5344,13 +5383,13 @@
         <v>16998</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M5" s="7">
         <v>25</v>
@@ -5359,13 +5398,13 @@
         <v>25557</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5380,13 +5419,13 @@
         <v>20669</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -5395,13 +5434,13 @@
         <v>25704</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="M6" s="7">
         <v>46</v>
@@ -5410,13 +5449,13 @@
         <v>46374</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5431,10 +5470,10 @@
         <v>22121</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>329</v>
@@ -5467,7 +5506,7 @@
         <v>334</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5482,13 +5521,13 @@
         <v>4408</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -5497,13 +5536,13 @@
         <v>9668</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M8" s="7">
         <v>14</v>
@@ -5512,13 +5551,13 @@
         <v>14077</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,13 +5625,13 @@
         <v>74318</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="H10" s="7">
         <v>67</v>
@@ -5601,13 +5640,13 @@
         <v>66275</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="M10" s="7">
         <v>137</v>
@@ -5616,13 +5655,13 @@
         <v>140593</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,13 +5676,13 @@
         <v>58976</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H11" s="7">
         <v>62</v>
@@ -5652,13 +5691,13 @@
         <v>58884</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>356</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>357</v>
+        <v>228</v>
       </c>
       <c r="M11" s="7">
         <v>119</v>
@@ -5667,13 +5706,13 @@
         <v>117860</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,13 +5727,13 @@
         <v>98840</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H12" s="7">
         <v>73</v>
@@ -5703,13 +5742,13 @@
         <v>70435</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M12" s="7">
         <v>167</v>
@@ -5718,13 +5757,13 @@
         <v>169276</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,13 +5778,13 @@
         <v>71850</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -5754,13 +5793,13 @@
         <v>50409</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>373</v>
+        <v>288</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="M13" s="7">
         <v>122</v>
@@ -5769,13 +5808,13 @@
         <v>122259</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>377</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,13 +5829,13 @@
         <v>40202</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -5805,13 +5844,13 @@
         <v>27712</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="M14" s="7">
         <v>67</v>
@@ -5820,13 +5859,13 @@
         <v>67914</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,7 +5921,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5894,13 +5933,13 @@
         <v>102018</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H16" s="7">
         <v>88</v>
@@ -5909,13 +5948,13 @@
         <v>86826</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="M16" s="7">
         <v>187</v>
@@ -5924,13 +5963,13 @@
         <v>188844</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>317</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5945,13 +5984,13 @@
         <v>89341</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H17" s="7">
         <v>54</v>
@@ -5960,13 +5999,13 @@
         <v>54019</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>38</v>
+        <v>394</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>70</v>
+        <v>396</v>
       </c>
       <c r="M17" s="7">
         <v>139</v>
@@ -5975,13 +6014,13 @@
         <v>143360</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5996,13 +6035,13 @@
         <v>133131</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="H18" s="7">
         <v>100</v>
@@ -6011,13 +6050,13 @@
         <v>97987</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="M18" s="7">
         <v>225</v>
@@ -6026,13 +6065,13 @@
         <v>231118</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,13 +6086,13 @@
         <v>84968</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="H19" s="7">
         <v>53</v>
@@ -6062,10 +6101,10 @@
         <v>55277</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>414</v>
@@ -6080,10 +6119,10 @@
         <v>415</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,13 +6137,13 @@
         <v>50130</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>419</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>420</v>
+        <v>34</v>
       </c>
       <c r="H20" s="7">
         <v>24</v>
@@ -6113,13 +6152,13 @@
         <v>23305</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="M20" s="7">
         <v>71</v>
@@ -6128,13 +6167,13 @@
         <v>73435</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,7 +6229,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6202,13 +6241,13 @@
         <v>90789</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="H22" s="7">
         <v>51</v>
@@ -6217,13 +6256,13 @@
         <v>57052</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>431</v>
+        <v>284</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M22" s="7">
         <v>130</v>
@@ -6232,13 +6271,13 @@
         <v>147840</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>433</v>
+        <v>70</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>166</v>
+        <v>430</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,13 +6292,13 @@
         <v>59200</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H23" s="7">
         <v>37</v>
@@ -6268,13 +6307,13 @@
         <v>40343</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="M23" s="7">
         <v>92</v>
@@ -6283,13 +6322,13 @@
         <v>99543</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6304,13 +6343,13 @@
         <v>111297</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H24" s="7">
         <v>75</v>
@@ -6319,13 +6358,13 @@
         <v>80511</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M24" s="7">
         <v>176</v>
@@ -6334,13 +6373,13 @@
         <v>191808</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6355,13 +6394,13 @@
         <v>60745</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>354</v>
+        <v>452</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -6370,13 +6409,13 @@
         <v>41116</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="M25" s="7">
         <v>94</v>
@@ -6385,13 +6424,13 @@
         <v>101861</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>386</v>
+        <v>457</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>459</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6406,13 +6445,13 @@
         <v>45698</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="H26" s="7">
         <v>22</v>
@@ -6421,13 +6460,13 @@
         <v>24096</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="M26" s="7">
         <v>62</v>
@@ -6436,13 +6475,13 @@
         <v>69794</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6510,13 +6549,13 @@
         <v>37330</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>266</v>
+        <v>467</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>470</v>
+        <v>26</v>
       </c>
       <c r="H28" s="7">
         <v>21</v>
@@ -6525,13 +6564,13 @@
         <v>24709</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>149</v>
+        <v>469</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="M28" s="7">
         <v>55</v>
@@ -6540,13 +6579,13 @@
         <v>62039</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>474</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6561,13 +6600,13 @@
         <v>28462</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>477</v>
       </c>
       <c r="H29" s="7">
         <v>20</v>
@@ -6576,13 +6615,13 @@
         <v>23786</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>479</v>
+        <v>88</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="M29" s="7">
         <v>44</v>
@@ -6591,13 +6630,13 @@
         <v>52248</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6612,13 +6651,13 @@
         <v>62950</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H30" s="7">
         <v>23</v>
@@ -6627,13 +6666,13 @@
         <v>26346</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="M30" s="7">
         <v>78</v>
@@ -6642,13 +6681,13 @@
         <v>89295</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6663,13 +6702,13 @@
         <v>17426</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="H31" s="7">
         <v>15</v>
@@ -6678,13 +6717,13 @@
         <v>18476</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="M31" s="7">
         <v>31</v>
@@ -6693,13 +6732,13 @@
         <v>35902</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>150</v>
+        <v>495</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>91</v>
+        <v>497</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6714,13 +6753,13 @@
         <v>19558</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -6806,7 +6845,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6821,7 +6860,7 @@
         <v>507</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>508</v>
@@ -6833,10 +6872,10 @@
         <v>905</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>71</v>
+        <v>319</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>509</v>
@@ -6848,13 +6887,13 @@
         <v>2141</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6869,13 +6908,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -6884,13 +6923,13 @@
         <v>1049</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>513</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -6899,13 +6938,13 @@
         <v>1049</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6920,13 +6959,13 @@
         <v>795</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6935,13 +6974,13 @@
         <v>0</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -6950,13 +6989,13 @@
         <v>795</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6971,13 +7010,13 @@
         <v>3008</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -6986,13 +7025,13 @@
         <v>1183</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>524</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
@@ -7001,7 +7040,7 @@
         <v>4192</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>321</v>
+        <v>524</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>525</v>
@@ -7022,13 +7061,13 @@
         <v>946</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>528</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -7037,13 +7076,13 @@
         <v>2054</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>530</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -7052,13 +7091,13 @@
         <v>2999</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7129,7 +7168,7 @@
         <v>54</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>259</v>
+        <v>533</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>534</v>
@@ -7141,13 +7180,13 @@
         <v>261359</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>215</v>
+        <v>535</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M40" s="7">
         <v>559</v>
@@ -7156,10 +7195,10 @@
         <v>590401</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>538</v>
+        <v>109</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>539</v>
@@ -7177,13 +7216,13 @@
         <v>244539</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>542</v>
       </c>
       <c r="H41" s="7">
         <v>191</v>
@@ -7192,13 +7231,13 @@
         <v>195079</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="K41" s="7" t="s">
-        <v>248</v>
-      </c>
       <c r="L41" s="7" t="s">
-        <v>401</v>
+        <v>544</v>
       </c>
       <c r="M41" s="7">
         <v>420</v>
@@ -7207,13 +7246,13 @@
         <v>439618</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>441</v>
+        <v>546</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7228,13 +7267,13 @@
         <v>427682</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>547</v>
+        <v>448</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H42" s="7">
         <v>297</v>
@@ -7243,13 +7282,13 @@
         <v>300983</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M42" s="7">
         <v>693</v>
@@ -7258,13 +7297,13 @@
         <v>728665</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>432</v>
+        <v>553</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7279,13 +7318,13 @@
         <v>260118</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="H43" s="7">
         <v>174</v>
@@ -7294,13 +7333,13 @@
         <v>180353</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>558</v>
+        <v>469</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M43" s="7">
         <v>419</v>
@@ -7309,13 +7348,13 @@
         <v>440471</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>462</v>
+        <v>561</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7330,13 +7369,13 @@
         <v>160941</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>147</v>
+        <v>565</v>
       </c>
       <c r="H44" s="7">
         <v>97</v>
@@ -7345,13 +7384,13 @@
         <v>99398</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>466</v>
+        <v>568</v>
       </c>
       <c r="M44" s="7">
         <v>245</v>
@@ -7360,13 +7399,13 @@
         <v>260339</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7422,7 +7461,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -7444,7 +7483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4D7A94-6FF0-4DD2-A00D-269C59D54B5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C769E81F-D090-4D24-8E8D-510CEFCAFFB6}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7461,7 +7500,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7568,13 +7607,13 @@
         <v>9166</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>501</v>
+        <v>573</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -7583,13 +7622,13 @@
         <v>7593</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>570</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -7598,13 +7637,13 @@
         <v>16758</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7619,13 +7658,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -7634,13 +7673,13 @@
         <v>3076</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>232</v>
+        <v>164</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>576</v>
+        <v>156</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -7649,13 +7688,13 @@
         <v>3077</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>209</v>
+        <v>580</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7670,13 +7709,13 @@
         <v>5201</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -7685,13 +7724,13 @@
         <v>11714</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="M6" s="7">
         <v>12</v>
@@ -7700,13 +7739,13 @@
         <v>16915</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7721,13 +7760,13 @@
         <v>8219</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -7736,13 +7775,13 @@
         <v>2905</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>590</v>
+        <v>326</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -7751,13 +7790,13 @@
         <v>11123</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7772,13 +7811,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -7787,13 +7826,13 @@
         <v>3454</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -7802,13 +7841,13 @@
         <v>3454</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>597</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7876,13 +7915,13 @@
         <v>42643</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -7891,13 +7930,13 @@
         <v>33693</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>491</v>
+        <v>604</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
@@ -7906,13 +7945,13 @@
         <v>76335</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7927,13 +7966,13 @@
         <v>13668</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -7942,13 +7981,13 @@
         <v>15255</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
@@ -7957,13 +7996,13 @@
         <v>28922</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>612</v>
+        <v>466</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7978,13 +8017,13 @@
         <v>33102</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>616</v>
+        <v>562</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
@@ -7996,10 +8035,10 @@
         <v>62</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>426</v>
+        <v>619</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>618</v>
+        <v>273</v>
       </c>
       <c r="M12" s="7">
         <v>40</v>
@@ -8008,13 +8047,13 @@
         <v>51646</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8029,13 +8068,13 @@
         <v>9023</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>510</v>
+        <v>625</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -8044,13 +8083,13 @@
         <v>9077</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -8059,13 +8098,13 @@
         <v>18101</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8080,13 +8119,13 @@
         <v>12306</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -8095,13 +8134,13 @@
         <v>13766</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -8110,13 +8149,13 @@
         <v>26072</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8172,7 +8211,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8184,13 +8223,13 @@
         <v>35643</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>640</v>
+        <v>117</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
@@ -8199,13 +8238,13 @@
         <v>32895</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="M16" s="7">
         <v>78</v>
@@ -8214,13 +8253,13 @@
         <v>68538</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8235,13 +8274,13 @@
         <v>20557</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -8250,13 +8289,13 @@
         <v>15967</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>237</v>
+        <v>653</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>53</v>
+        <v>654</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
@@ -8265,13 +8304,13 @@
         <v>36524</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>397</v>
+        <v>656</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8289,10 +8328,10 @@
         <v>62</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>654</v>
+        <v>286</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H18" s="7">
         <v>33</v>
@@ -8301,13 +8340,13 @@
         <v>23107</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>93</v>
+        <v>658</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>15</v>
+        <v>659</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="M18" s="7">
         <v>56</v>
@@ -8316,13 +8355,13 @@
         <v>45335</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>376</v>
+        <v>662</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8337,13 +8376,13 @@
         <v>17711</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>659</v>
+        <v>546</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -8352,13 +8391,13 @@
         <v>16245</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>667</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="M19" s="7">
         <v>40</v>
@@ -8367,13 +8406,13 @@
         <v>33956</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>663</v>
+        <v>356</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8388,13 +8427,13 @@
         <v>12151</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>238</v>
+        <v>672</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -8403,13 +8442,13 @@
         <v>11512</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="M20" s="7">
         <v>25</v>
@@ -8418,13 +8457,13 @@
         <v>23664</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>673</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8480,7 +8519,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8492,13 +8531,13 @@
         <v>103943</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="H22" s="7">
         <v>67</v>
@@ -8507,13 +8546,13 @@
         <v>43141</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>173</v>
+        <v>682</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="M22" s="7">
         <v>120</v>
@@ -8522,13 +8561,13 @@
         <v>147084</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8543,13 +8582,13 @@
         <v>16744</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
@@ -8558,13 +8597,13 @@
         <v>19744</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>659</v>
+        <v>546</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="M23" s="7">
         <v>50</v>
@@ -8573,13 +8612,13 @@
         <v>36487</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>689</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8594,13 +8633,13 @@
         <v>33415</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>105</v>
+        <v>694</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>691</v>
+        <v>43</v>
       </c>
       <c r="H24" s="7">
         <v>52</v>
@@ -8609,13 +8648,13 @@
         <v>32493</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>326</v>
+        <v>697</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="M24" s="7">
         <v>86</v>
@@ -8624,13 +8663,13 @@
         <v>65909</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8645,13 +8684,13 @@
         <v>15503</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>206</v>
+        <v>702</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
@@ -8660,13 +8699,13 @@
         <v>15322</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>622</v>
+        <v>706</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>581</v>
+        <v>707</v>
       </c>
       <c r="M25" s="7">
         <v>36</v>
@@ -8675,13 +8714,13 @@
         <v>30825</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8696,13 +8735,13 @@
         <v>11736</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -8711,13 +8750,13 @@
         <v>9979</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
@@ -8726,13 +8765,13 @@
         <v>21715</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8800,13 +8839,13 @@
         <v>18275</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>659</v>
+        <v>720</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -8815,13 +8854,13 @@
         <v>9359</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>193</v>
+        <v>723</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
       <c r="M28" s="7">
         <v>35</v>
@@ -8830,13 +8869,13 @@
         <v>27634</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>639</v>
+        <v>727</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8851,13 +8890,13 @@
         <v>14866</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>717</v>
+        <v>728</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>718</v>
+        <v>619</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -8866,13 +8905,13 @@
         <v>7192</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>722</v>
+        <v>732</v>
       </c>
       <c r="M29" s="7">
         <v>28</v>
@@ -8881,13 +8920,13 @@
         <v>22057</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>723</v>
+        <v>733</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>295</v>
+        <v>734</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>724</v>
+        <v>735</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8902,13 +8941,13 @@
         <v>23878</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>725</v>
+        <v>736</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>726</v>
+        <v>157</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="H30" s="7">
         <v>25</v>
@@ -8917,13 +8956,13 @@
         <v>15538</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>728</v>
+        <v>738</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="M30" s="7">
         <v>50</v>
@@ -8932,13 +8971,13 @@
         <v>39416</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>731</v>
+        <v>405</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8953,13 +8992,13 @@
         <v>5935</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>27</v>
+        <v>745</v>
       </c>
       <c r="H31" s="7">
         <v>9</v>
@@ -8971,10 +9010,10 @@
         <v>21</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>736</v>
+        <v>567</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>737</v>
+        <v>369</v>
       </c>
       <c r="M31" s="7">
         <v>16</v>
@@ -8983,13 +9022,13 @@
         <v>11794</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9004,13 +9043,13 @@
         <v>6383</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>186</v>
+        <v>751</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -9019,13 +9058,13 @@
         <v>2115</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
       <c r="M32" s="7">
         <v>10</v>
@@ -9034,13 +9073,13 @@
         <v>8498</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>35</v>
+        <v>639</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>51</v>
+        <v>756</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9096,7 +9135,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9108,13 +9147,13 @@
         <v>607</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>287</v>
+        <v>757</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>747</v>
+        <v>758</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -9123,13 +9162,13 @@
         <v>2299</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>748</v>
+        <v>759</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>749</v>
+        <v>760</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>750</v>
+        <v>761</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -9138,13 +9177,13 @@
         <v>2906</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>751</v>
+        <v>762</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>752</v>
+        <v>763</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>753</v>
+        <v>764</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9159,13 +9198,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>218</v>
+        <v>765</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -9174,13 +9213,13 @@
         <v>471</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -9189,13 +9228,13 @@
         <v>471</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>267</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9210,13 +9249,13 @@
         <v>3020</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>582</v>
+        <v>768</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>756</v>
+        <v>155</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -9225,13 +9264,13 @@
         <v>905</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="M36" s="7">
         <v>7</v>
@@ -9240,13 +9279,13 @@
         <v>3924</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>446</v>
+        <v>771</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9261,13 +9300,13 @@
         <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>218</v>
+        <v>765</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
@@ -9276,13 +9315,13 @@
         <v>1725</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>761</v>
+        <v>774</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -9291,13 +9330,13 @@
         <v>1725</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>527</v>
+        <v>334</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>763</v>
+        <v>776</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9312,13 +9351,13 @@
         <v>833</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>766</v>
+        <v>779</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -9327,13 +9366,13 @@
         <v>1062</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>63</v>
+        <v>780</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>767</v>
+        <v>781</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -9342,13 +9381,13 @@
         <v>1895</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>768</v>
+        <v>782</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>769</v>
+        <v>783</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>770</v>
+        <v>784</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9416,13 +9455,13 @@
         <v>210276</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>771</v>
+        <v>785</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>472</v>
+        <v>786</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>772</v>
+        <v>787</v>
       </c>
       <c r="H40" s="7">
         <v>167</v>
@@ -9431,13 +9470,13 @@
         <v>128981</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>773</v>
+        <v>788</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>774</v>
+        <v>789</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>775</v>
+        <v>790</v>
       </c>
       <c r="M40" s="7">
         <v>304</v>
@@ -9446,13 +9485,13 @@
         <v>339257</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>776</v>
+        <v>791</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>777</v>
+        <v>487</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>778</v>
+        <v>792</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9467,13 +9506,13 @@
         <v>65834</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>779</v>
+        <v>134</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
       <c r="H41" s="7">
         <v>85</v>
@@ -9482,13 +9521,13 @@
         <v>61704</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>782</v>
+        <v>391</v>
       </c>
       <c r="M41" s="7">
         <v>149</v>
@@ -9497,13 +9536,13 @@
         <v>127538</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>784</v>
+        <v>690</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>44</v>
+        <v>794</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9518,13 +9557,13 @@
         <v>120844</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>785</v>
+        <v>796</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>786</v>
+        <v>256</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>787</v>
+        <v>797</v>
       </c>
       <c r="H42" s="7">
         <v>138</v>
@@ -9533,13 +9572,13 @@
         <v>102301</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>788</v>
+        <v>798</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>264</v>
+        <v>36</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>789</v>
+        <v>799</v>
       </c>
       <c r="M42" s="7">
         <v>251</v>
@@ -9548,13 +9587,13 @@
         <v>223145</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>791</v>
+        <v>801</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>792</v>
+        <v>802</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9569,13 +9608,13 @@
         <v>56391</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>793</v>
+        <v>803</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>794</v>
+        <v>804</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>795</v>
+        <v>178</v>
       </c>
       <c r="H43" s="7">
         <v>68</v>
@@ -9584,13 +9623,13 @@
         <v>51133</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>779</v>
+        <v>134</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>659</v>
+        <v>806</v>
       </c>
       <c r="M43" s="7">
         <v>116</v>
@@ -9599,13 +9638,13 @@
         <v>107525</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>797</v>
+        <v>807</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>103</v>
+        <v>808</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9620,13 +9659,13 @@
         <v>43409</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>798</v>
+        <v>809</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>799</v>
+        <v>810</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="H44" s="7">
         <v>51</v>
@@ -9635,13 +9674,13 @@
         <v>41888</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>108</v>
+        <v>812</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>801</v>
+        <v>813</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>88</v>
+        <v>814</v>
       </c>
       <c r="M44" s="7">
         <v>84</v>
@@ -9650,13 +9689,13 @@
         <v>85298</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>802</v>
+        <v>815</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>803</v>
+        <v>816</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>804</v>
+        <v>817</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9712,7 +9751,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6704-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6704-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33372C03-5691-490F-8B02-0EB138F29609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F61F3430-39D9-46E6-A6AB-08CC0E1CF211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{82EC21A7-A587-49F6-9153-A2F398C9AF54}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6F3FDF8C-4F58-4061-A084-38A9A7814AAB}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="821">
   <si>
     <t>Población según si le cuesta olvidar los problemas del trabajo en 2012 (Tasa respuesta: 33,79%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -223,7 +223,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>20,53%</t>
@@ -355,7 +355,7 @@
     <t>18,39%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>14,3%</t>
@@ -490,7 +490,7 @@
     <t>18,48%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>20,73%</t>
@@ -628,7 +628,7 @@
     <t>17,2%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>19,52%</t>
@@ -748,7 +748,7 @@
     <t>19,18%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
   </si>
   <si>
     <t>33,71%</t>
@@ -805,6 +805,12 @@
     <t>26,42%</t>
   </si>
   <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
     <t>18,67%</t>
   </si>
   <si>
@@ -1561,16 +1567,19 @@
     <t>16,53%</t>
   </si>
   <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
   </si>
   <si>
     <t>75,37%</t>
   </si>
   <si>
-    <t>52,1%</t>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
   </si>
   <si>
     <t>20,2%</t>
@@ -1579,31 +1588,19 @@
     <t>66,16%</t>
   </si>
   <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
   </si>
   <si>
     <t>22,79%</t>
@@ -1612,16 +1609,19 @@
     <t>82,18%</t>
   </si>
   <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
   </si>
   <si>
     <t>39,57%</t>
@@ -1630,13 +1630,19 @@
     <t>82,01%</t>
   </si>
   <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
   </si>
   <si>
     <t>20,82%</t>
@@ -1756,742 +1762,745 @@
     <t>Población según si le cuesta olvidar los problemas del trabajo en 2023 (Tasa respuesta: 10,34%)</t>
   </si>
   <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
   </si>
   <si>
     <t>13,49%</t>
   </si>
   <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
   </si>
   <si>
     <t>32,96%</t>
   </si>
   <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
   </si>
   <si>
     <t>9,68%</t>
   </si>
   <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
   </si>
 </sst>
 </file>
@@ -2903,8 +2912,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CDA0C3-74A2-43D5-BC83-B7FCF5417313}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133DAA4E-A6D9-4342-A0E1-C9E10BC39D75}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4863,55 +4872,49 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>255</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>242</v>
-      </c>
-      <c r="D40" s="7">
-        <v>264360</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>256</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H40" s="7">
-        <v>204</v>
-      </c>
-      <c r="I40" s="7">
-        <v>221866</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M40" s="7">
-        <v>446</v>
-      </c>
-      <c r="N40" s="7">
-        <v>486225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N40" s="7"/>
       <c r="O40" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4920,49 +4923,43 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>239</v>
-      </c>
-      <c r="D41" s="7">
-        <v>258212</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="H41" s="7">
-        <v>151</v>
-      </c>
-      <c r="I41" s="7">
-        <v>163024</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="M41" s="7">
-        <v>390</v>
-      </c>
-      <c r="N41" s="7">
-        <v>421235</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N41" s="7"/>
       <c r="O41" s="7" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4971,49 +4968,43 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>423</v>
-      </c>
-      <c r="D42" s="7">
-        <v>441591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="H42" s="7">
-        <v>253</v>
-      </c>
-      <c r="I42" s="7">
-        <v>272953</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="M42" s="7">
-        <v>676</v>
-      </c>
-      <c r="N42" s="7">
-        <v>714544</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N42" s="7"/>
       <c r="O42" s="7" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,49 +5013,43 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>218</v>
-      </c>
-      <c r="D43" s="7">
-        <v>228348</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="H43" s="7">
-        <v>142</v>
-      </c>
-      <c r="I43" s="7">
-        <v>151640</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="M43" s="7">
-        <v>360</v>
-      </c>
-      <c r="N43" s="7">
-        <v>379988</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N43" s="7"/>
       <c r="O43" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5073,49 +5058,43 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>207</v>
-      </c>
-      <c r="D44" s="7">
-        <v>223097</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D44" s="7"/>
       <c r="E44" s="7" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>198</v>
+        <v>256</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="H44" s="7">
-        <v>120</v>
-      </c>
-      <c r="I44" s="7">
-        <v>132941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="M44" s="7">
-        <v>327</v>
-      </c>
-      <c r="N44" s="7">
-        <v>356038</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N44" s="7"/>
       <c r="O44" s="7" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,63 +5103,366 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>0</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0</v>
+      </c>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>242</v>
+      </c>
+      <c r="D46" s="7">
+        <v>264360</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H46" s="7">
+        <v>204</v>
+      </c>
+      <c r="I46" s="7">
+        <v>221866</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="M46" s="7">
+        <v>446</v>
+      </c>
+      <c r="N46" s="7">
+        <v>486225</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>239</v>
+      </c>
+      <c r="D47" s="7">
+        <v>258212</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H47" s="7">
+        <v>151</v>
+      </c>
+      <c r="I47" s="7">
+        <v>163024</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="M47" s="7">
+        <v>390</v>
+      </c>
+      <c r="N47" s="7">
+        <v>421235</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>423</v>
+      </c>
+      <c r="D48" s="7">
+        <v>441591</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H48" s="7">
+        <v>253</v>
+      </c>
+      <c r="I48" s="7">
+        <v>272953</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="M48" s="7">
+        <v>676</v>
+      </c>
+      <c r="N48" s="7">
+        <v>714544</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>218</v>
+      </c>
+      <c r="D49" s="7">
+        <v>228348</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H49" s="7">
+        <v>142</v>
+      </c>
+      <c r="I49" s="7">
+        <v>151640</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="M49" s="7">
+        <v>360</v>
+      </c>
+      <c r="N49" s="7">
+        <v>379988</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>207</v>
+      </c>
+      <c r="D50" s="7">
+        <v>223097</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H50" s="7">
+        <v>120</v>
+      </c>
+      <c r="I50" s="7">
+        <v>132941</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="M50" s="7">
+        <v>327</v>
+      </c>
+      <c r="N50" s="7">
+        <v>356038</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>1329</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>1415607</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>870</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>942424</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>2199</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>2358031</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>298</v>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5193,8 +5475,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21009213-C121-4D75-83BB-D8D7FCEA8DCE}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CFB0EC-AD52-498C-8D81-788F2AB9BE58}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5210,7 +5492,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5317,13 +5599,13 @@
         <v>23351</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -5332,13 +5614,13 @@
         <v>25592</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M4" s="7">
         <v>48</v>
@@ -5347,13 +5629,13 @@
         <v>48943</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,13 +5650,13 @@
         <v>8560</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -5383,13 +5665,13 @@
         <v>16998</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M5" s="7">
         <v>25</v>
@@ -5398,13 +5680,13 @@
         <v>25557</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,13 +5701,13 @@
         <v>20669</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -5434,13 +5716,13 @@
         <v>25704</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M6" s="7">
         <v>46</v>
@@ -5449,13 +5731,13 @@
         <v>46374</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5470,13 +5752,13 @@
         <v>22121</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -5485,13 +5767,13 @@
         <v>13892</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -5500,13 +5782,13 @@
         <v>36013</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5521,13 +5803,13 @@
         <v>4408</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -5536,13 +5818,13 @@
         <v>9668</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M8" s="7">
         <v>14</v>
@@ -5554,10 +5836,10 @@
         <v>22</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,13 +5907,13 @@
         <v>74318</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H10" s="7">
         <v>67</v>
@@ -5640,13 +5922,13 @@
         <v>66275</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M10" s="7">
         <v>137</v>
@@ -5655,13 +5937,13 @@
         <v>140593</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5679,10 +5961,10 @@
         <v>18</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H11" s="7">
         <v>62</v>
@@ -5691,10 +5973,10 @@
         <v>58884</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>228</v>
@@ -5709,10 +5991,10 @@
         <v>115</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,13 +6009,13 @@
         <v>98840</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H12" s="7">
         <v>73</v>
@@ -5742,13 +6024,13 @@
         <v>70435</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M12" s="7">
         <v>167</v>
@@ -5757,13 +6039,13 @@
         <v>169276</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,13 +6060,13 @@
         <v>71850</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -5793,13 +6075,13 @@
         <v>50409</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M13" s="7">
         <v>122</v>
@@ -5808,10 +6090,10 @@
         <v>122259</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>230</v>
@@ -5829,13 +6111,13 @@
         <v>40202</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -5844,13 +6126,13 @@
         <v>27712</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M14" s="7">
         <v>67</v>
@@ -5859,13 +6141,13 @@
         <v>67914</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,13 +6215,13 @@
         <v>102018</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H16" s="7">
         <v>88</v>
@@ -5948,13 +6230,13 @@
         <v>86826</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M16" s="7">
         <v>187</v>
@@ -5963,13 +6245,13 @@
         <v>188844</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5984,13 +6266,13 @@
         <v>89341</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H17" s="7">
         <v>54</v>
@@ -5999,13 +6281,13 @@
         <v>54019</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M17" s="7">
         <v>139</v>
@@ -6014,13 +6296,13 @@
         <v>143360</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,13 +6317,13 @@
         <v>133131</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H18" s="7">
         <v>100</v>
@@ -6050,28 +6332,28 @@
         <v>97987</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M18" s="7">
         <v>225</v>
       </c>
       <c r="N18" s="7">
-        <v>231118</v>
+        <v>231117</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,13 +6368,13 @@
         <v>84968</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H19" s="7">
         <v>53</v>
@@ -6101,13 +6383,13 @@
         <v>55277</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M19" s="7">
         <v>134</v>
@@ -6116,13 +6398,13 @@
         <v>140245</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>116</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6137,10 +6419,10 @@
         <v>50130</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>34</v>
@@ -6152,13 +6434,13 @@
         <v>23305</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M20" s="7">
         <v>71</v>
@@ -6167,13 +6449,13 @@
         <v>73435</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6215,7 +6497,7 @@
         <v>756</v>
       </c>
       <c r="N21" s="7">
-        <v>777002</v>
+        <v>777001</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -6241,13 +6523,13 @@
         <v>90789</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H22" s="7">
         <v>51</v>
@@ -6256,13 +6538,13 @@
         <v>57052</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M22" s="7">
         <v>130</v>
@@ -6274,10 +6556,10 @@
         <v>70</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6292,13 +6574,13 @@
         <v>59200</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H23" s="7">
         <v>37</v>
@@ -6307,13 +6589,13 @@
         <v>40343</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M23" s="7">
         <v>92</v>
@@ -6322,13 +6604,13 @@
         <v>99543</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6343,13 +6625,13 @@
         <v>111297</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="H24" s="7">
         <v>75</v>
@@ -6358,13 +6640,13 @@
         <v>80511</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M24" s="7">
         <v>176</v>
@@ -6373,13 +6655,13 @@
         <v>191808</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6394,13 +6676,13 @@
         <v>60745</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -6409,13 +6691,13 @@
         <v>41116</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M25" s="7">
         <v>94</v>
@@ -6424,10 +6706,10 @@
         <v>101861</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>226</v>
@@ -6445,13 +6727,13 @@
         <v>45698</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H26" s="7">
         <v>22</v>
@@ -6460,13 +6742,13 @@
         <v>24096</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M26" s="7">
         <v>62</v>
@@ -6475,13 +6757,13 @@
         <v>69794</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6549,10 +6831,10 @@
         <v>37330</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>26</v>
@@ -6564,13 +6846,13 @@
         <v>24709</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="M28" s="7">
         <v>55</v>
@@ -6579,13 +6861,13 @@
         <v>62039</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6600,13 +6882,13 @@
         <v>28462</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="H29" s="7">
         <v>20</v>
@@ -6615,13 +6897,13 @@
         <v>23786</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>88</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M29" s="7">
         <v>44</v>
@@ -6630,13 +6912,13 @@
         <v>52248</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6651,13 +6933,13 @@
         <v>62950</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H30" s="7">
         <v>23</v>
@@ -6666,13 +6948,13 @@
         <v>26346</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="M30" s="7">
         <v>78</v>
@@ -6681,13 +6963,13 @@
         <v>89295</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6702,13 +6984,13 @@
         <v>17426</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H31" s="7">
         <v>15</v>
@@ -6720,10 +7002,10 @@
         <v>112</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M31" s="7">
         <v>31</v>
@@ -6732,13 +7014,13 @@
         <v>35902</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6753,13 +7035,13 @@
         <v>19558</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -6768,13 +7050,13 @@
         <v>12562</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="M32" s="7">
         <v>28</v>
@@ -6783,13 +7065,13 @@
         <v>32120</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6857,13 +7139,13 @@
         <v>1236</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>238</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -6872,13 +7154,13 @@
         <v>905</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>238</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -6887,13 +7169,13 @@
         <v>2141</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>186</v>
+        <v>68</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>238</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6914,7 +7196,7 @@
         <v>243</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>254</v>
+        <v>513</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -6923,13 +7205,13 @@
         <v>1049</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>238</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -6938,13 +7220,13 @@
         <v>1049</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>238</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6953,19 +7235,19 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="7">
-        <v>795</v>
+        <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6980,19 +7262,19 @@
         <v>243</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="M36" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" s="7">
-        <v>795</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>517</v>
+        <v>238</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>518</v>
@@ -7016,7 +7298,7 @@
         <v>520</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>521</v>
+        <v>239</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -7025,13 +7307,13 @@
         <v>1183</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>238</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
@@ -7040,13 +7322,13 @@
         <v>4192</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7061,7 +7343,7 @@
         <v>946</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>334</v>
+        <v>526</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>238</v>
@@ -7106,10 +7388,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" s="7">
-        <v>5985</v>
+        <v>5190</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -7136,10 +7418,10 @@
         <v>60</v>
       </c>
       <c r="M39" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N39" s="7">
-        <v>11176</v>
+        <v>10381</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -7153,55 +7435,53 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>255</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="D40" s="7">
-        <v>329042</v>
+        <v>0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>54</v>
+        <v>238</v>
       </c>
       <c r="F40" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="G40" s="7" t="s">
-        <v>534</v>
-      </c>
       <c r="H40" s="7">
-        <v>254</v>
-      </c>
-      <c r="I40" s="7">
-        <v>261359</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>535</v>
+        <v>256</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>536</v>
+        <v>256</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>537</v>
+        <v>256</v>
       </c>
       <c r="M40" s="7">
-        <v>559</v>
+        <v>0</v>
       </c>
       <c r="N40" s="7">
-        <v>590401</v>
+        <v>0</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>538</v>
+        <v>238</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>109</v>
+        <v>243</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7210,49 +7490,47 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="D41" s="7">
-        <v>244539</v>
+        <v>0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>355</v>
+        <v>238</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>540</v>
+        <v>243</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="H41" s="7">
-        <v>191</v>
-      </c>
-      <c r="I41" s="7">
-        <v>195079</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>542</v>
+        <v>256</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>543</v>
+        <v>256</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>544</v>
+        <v>256</v>
       </c>
       <c r="M41" s="7">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="N41" s="7">
-        <v>439618</v>
+        <v>0</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>545</v>
+        <v>238</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>546</v>
+        <v>243</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7261,49 +7539,47 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>396</v>
+        <v>1</v>
       </c>
       <c r="D42" s="7">
-        <v>427682</v>
+        <v>795</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>548</v>
+        <v>239</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>448</v>
+        <v>534</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>549</v>
+        <v>60</v>
       </c>
       <c r="H42" s="7">
-        <v>297</v>
-      </c>
-      <c r="I42" s="7">
-        <v>300983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>550</v>
+        <v>256</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>551</v>
+        <v>256</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>552</v>
+        <v>256</v>
       </c>
       <c r="M42" s="7">
-        <v>693</v>
+        <v>1</v>
       </c>
       <c r="N42" s="7">
-        <v>728665</v>
+        <v>795</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>553</v>
+        <v>239</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>555</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7312,49 +7588,47 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="D43" s="7">
-        <v>260118</v>
+        <v>0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>556</v>
+        <v>238</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>557</v>
+        <v>243</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="H43" s="7">
-        <v>174</v>
-      </c>
-      <c r="I43" s="7">
-        <v>180353</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>559</v>
+        <v>256</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>469</v>
+        <v>256</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>560</v>
+        <v>256</v>
       </c>
       <c r="M43" s="7">
-        <v>419</v>
+        <v>0</v>
       </c>
       <c r="N43" s="7">
-        <v>440471</v>
+        <v>0</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>118</v>
+        <v>238</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>561</v>
+        <v>243</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>562</v>
+        <v>533</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7363,49 +7637,47 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="D44" s="7">
-        <v>160941</v>
+        <v>0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>563</v>
+        <v>238</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>564</v>
+        <v>243</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>565</v>
+        <v>533</v>
       </c>
       <c r="H44" s="7">
-        <v>97</v>
-      </c>
-      <c r="I44" s="7">
-        <v>99398</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>566</v>
+        <v>256</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>567</v>
+        <v>256</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>568</v>
+        <v>256</v>
       </c>
       <c r="M44" s="7">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="N44" s="7">
-        <v>260339</v>
+        <v>0</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>569</v>
+        <v>238</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>570</v>
+        <v>243</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>501</v>
+        <v>533</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7414,63 +7686,370 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7">
+        <v>795</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1</v>
+      </c>
+      <c r="N45" s="7">
+        <v>795</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>305</v>
+      </c>
+      <c r="D46" s="7">
+        <v>329042</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="H46" s="7">
+        <v>254</v>
+      </c>
+      <c r="I46" s="7">
+        <v>261359</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="M46" s="7">
+        <v>559</v>
+      </c>
+      <c r="N46" s="7">
+        <v>590401</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>229</v>
+      </c>
+      <c r="D47" s="7">
+        <v>244539</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="H47" s="7">
+        <v>191</v>
+      </c>
+      <c r="I47" s="7">
+        <v>195079</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="M47" s="7">
+        <v>420</v>
+      </c>
+      <c r="N47" s="7">
+        <v>439618</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>396</v>
+      </c>
+      <c r="D48" s="7">
+        <v>427682</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="H48" s="7">
+        <v>297</v>
+      </c>
+      <c r="I48" s="7">
+        <v>300983</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="M48" s="7">
+        <v>693</v>
+      </c>
+      <c r="N48" s="7">
+        <v>728665</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>245</v>
+      </c>
+      <c r="D49" s="7">
+        <v>260118</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="H49" s="7">
+        <v>174</v>
+      </c>
+      <c r="I49" s="7">
+        <v>180353</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="M49" s="7">
+        <v>419</v>
+      </c>
+      <c r="N49" s="7">
+        <v>440471</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>148</v>
+      </c>
+      <c r="D50" s="7">
+        <v>160941</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="H50" s="7">
+        <v>97</v>
+      </c>
+      <c r="I50" s="7">
+        <v>99398</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="M50" s="7">
+        <v>245</v>
+      </c>
+      <c r="N50" s="7">
+        <v>260339</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>1323</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>1422322</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>1013</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>1037172</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>2336</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>2459494</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>298</v>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -7483,8 +8062,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C769E81F-D090-4D24-8E8D-510CEFCAFFB6}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC7C6D2A-102A-4C2E-A240-AF2FC48D0123}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -7500,7 +8079,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7604,46 +8183,46 @@
         <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>9166</v>
+        <v>11051</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>7593</v>
+        <v>6651</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>254</v>
+        <v>577</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>16758</v>
+        <v>17702</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7664,37 +8243,37 @@
         <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>3076</v>
+        <v>2758</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>164</v>
+        <v>583</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>238</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>584</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>3077</v>
+        <v>2758</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>238</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>226</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7706,46 +8285,46 @@
         <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>5201</v>
+        <v>4931</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
       </c>
       <c r="I6" s="7">
-        <v>11714</v>
+        <v>9864</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>585</v>
+        <v>417</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="M6" s="7">
         <v>12</v>
       </c>
       <c r="N6" s="7">
-        <v>16915</v>
+        <v>14795</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>588</v>
+        <v>116</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7757,46 +8336,46 @@
         <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>8219</v>
+        <v>7410</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>2905</v>
+        <v>2664</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>593</v>
+        <v>571</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>238</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>326</v>
+        <v>597</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>11123</v>
+        <v>10074</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7817,37 +8396,37 @@
         <v>243</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>3454</v>
+        <v>3213</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>597</v>
+        <v>12</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>238</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>3454</v>
+        <v>3213</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>238</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>75</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7859,7 +8438,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="7">
-        <v>22585</v>
+        <v>23392</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -7874,7 +8453,7 @@
         <v>19</v>
       </c>
       <c r="I9" s="7">
-        <v>28742</v>
+        <v>25150</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -7889,7 +8468,7 @@
         <v>32</v>
       </c>
       <c r="N9" s="7">
-        <v>51327</v>
+        <v>48542</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -7912,46 +8491,46 @@
         <v>26</v>
       </c>
       <c r="D10" s="7">
-        <v>42643</v>
+        <v>40530</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
       </c>
       <c r="I10" s="7">
-        <v>33693</v>
+        <v>30039</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
       </c>
       <c r="N10" s="7">
-        <v>76335</v>
+        <v>70569</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7963,46 +8542,46 @@
         <v>10</v>
       </c>
       <c r="D11" s="7">
-        <v>13668</v>
+        <v>13893</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
       </c>
       <c r="I11" s="7">
-        <v>15255</v>
+        <v>14204</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>612</v>
+        <v>110</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>614</v>
+        <v>46</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
       </c>
       <c r="N11" s="7">
-        <v>28922</v>
+        <v>28097</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>466</v>
+        <v>616</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8014,46 +8593,46 @@
         <v>22</v>
       </c>
       <c r="D12" s="7">
-        <v>33102</v>
+        <v>32400</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>617</v>
+        <v>443</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>562</v>
+        <v>619</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
       </c>
       <c r="I12" s="7">
-        <v>18544</v>
+        <v>16578</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>62</v>
+        <v>621</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>273</v>
+        <v>623</v>
       </c>
       <c r="M12" s="7">
         <v>40</v>
       </c>
       <c r="N12" s="7">
-        <v>51646</v>
+        <v>48978</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8065,46 +8644,46 @@
         <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>9023</v>
+        <v>8508</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>9077</v>
+        <v>8168</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
       </c>
       <c r="N13" s="7">
-        <v>18101</v>
+        <v>16676</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8116,46 +8695,46 @@
         <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>12306</v>
+        <v>11723</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
       </c>
       <c r="I14" s="7">
-        <v>13766</v>
+        <v>12495</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
       </c>
       <c r="N14" s="7">
-        <v>26072</v>
+        <v>24218</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8167,7 +8746,7 @@
         <v>70</v>
       </c>
       <c r="D15" s="7">
-        <v>110743</v>
+        <v>107053</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -8182,7 +8761,7 @@
         <v>87</v>
       </c>
       <c r="I15" s="7">
-        <v>90334</v>
+        <v>81484</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -8197,7 +8776,7 @@
         <v>157</v>
       </c>
       <c r="N15" s="7">
-        <v>201076</v>
+        <v>188537</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -8220,46 +8799,46 @@
         <v>33</v>
       </c>
       <c r="D16" s="7">
-        <v>35643</v>
+        <v>33296</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>117</v>
+        <v>646</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
       </c>
       <c r="I16" s="7">
-        <v>32895</v>
+        <v>30406</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="M16" s="7">
         <v>78</v>
       </c>
       <c r="N16" s="7">
-        <v>68538</v>
+        <v>63702</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>646</v>
+        <v>551</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>647</v>
+        <v>553</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8271,46 +8850,46 @@
         <v>19</v>
       </c>
       <c r="D17" s="7">
-        <v>20557</v>
+        <v>20033</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
       </c>
       <c r="I17" s="7">
-        <v>15967</v>
+        <v>14651</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
       </c>
       <c r="N17" s="7">
-        <v>36524</v>
+        <v>34684</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>638</v>
+        <v>659</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8322,46 +8901,46 @@
         <v>23</v>
       </c>
       <c r="D18" s="7">
-        <v>22229</v>
+        <v>21753</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>62</v>
+        <v>364</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>286</v>
+        <v>88</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="H18" s="7">
         <v>33</v>
       </c>
       <c r="I18" s="7">
-        <v>23107</v>
+        <v>21657</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="M18" s="7">
         <v>56</v>
       </c>
       <c r="N18" s="7">
-        <v>45335</v>
+        <v>43410</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8373,46 +8952,46 @@
         <v>18</v>
       </c>
       <c r="D19" s="7">
-        <v>17711</v>
+        <v>16707</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>546</v>
+        <v>668</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>664</v>
+        <v>572</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
       </c>
       <c r="I19" s="7">
-        <v>16245</v>
+        <v>14862</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>666</v>
+        <v>267</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>371</v>
+        <v>37</v>
       </c>
       <c r="M19" s="7">
         <v>40</v>
       </c>
       <c r="N19" s="7">
-        <v>33956</v>
+        <v>31569</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>356</v>
+        <v>671</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8424,46 +9003,46 @@
         <v>9</v>
       </c>
       <c r="D20" s="7">
-        <v>12151</v>
+        <v>11431</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
       </c>
       <c r="I20" s="7">
-        <v>11512</v>
+        <v>10663</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="M20" s="7">
         <v>25</v>
       </c>
       <c r="N20" s="7">
-        <v>23664</v>
+        <v>22094</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>373</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8475,7 +9054,7 @@
         <v>102</v>
       </c>
       <c r="D21" s="7">
-        <v>108291</v>
+        <v>103220</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -8490,7 +9069,7 @@
         <v>138</v>
       </c>
       <c r="I21" s="7">
-        <v>99727</v>
+        <v>92239</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -8505,7 +9084,7 @@
         <v>240</v>
       </c>
       <c r="N21" s="7">
-        <v>208017</v>
+        <v>195459</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -8528,46 +9107,46 @@
         <v>53</v>
       </c>
       <c r="D22" s="7">
-        <v>103943</v>
+        <v>293688</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="H22" s="7">
         <v>67</v>
       </c>
       <c r="I22" s="7">
-        <v>43141</v>
+        <v>39482</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>681</v>
+        <v>225</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>682</v>
+        <v>276</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="M22" s="7">
         <v>120</v>
       </c>
       <c r="N22" s="7">
-        <v>147084</v>
+        <v>333170</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8579,37 +9158,37 @@
         <v>19</v>
       </c>
       <c r="D23" s="7">
-        <v>16744</v>
+        <v>16457</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>689</v>
+        <v>102</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
       </c>
       <c r="I23" s="7">
-        <v>19744</v>
+        <v>18384</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>546</v>
+        <v>691</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>691</v>
+        <v>665</v>
       </c>
       <c r="M23" s="7">
         <v>50</v>
       </c>
       <c r="N23" s="7">
-        <v>36487</v>
+        <v>34841</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>692</v>
@@ -8618,7 +9197,7 @@
         <v>693</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>192</v>
+        <v>694</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8630,46 +9209,46 @@
         <v>34</v>
       </c>
       <c r="D24" s="7">
-        <v>33415</v>
+        <v>31547</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>43</v>
+        <v>697</v>
       </c>
       <c r="H24" s="7">
         <v>52</v>
       </c>
       <c r="I24" s="7">
-        <v>32493</v>
+        <v>30567</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>696</v>
+        <v>316</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="M24" s="7">
         <v>86</v>
       </c>
       <c r="N24" s="7">
-        <v>65909</v>
+        <v>62114</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8681,46 +9260,46 @@
         <v>14</v>
       </c>
       <c r="D25" s="7">
-        <v>15503</v>
+        <v>14335</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
       </c>
       <c r="I25" s="7">
-        <v>15322</v>
+        <v>13815</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M25" s="7">
         <v>36</v>
       </c>
       <c r="N25" s="7">
-        <v>30825</v>
+        <v>28150</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>231</v>
+        <v>709</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>709</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8732,46 +9311,46 @@
         <v>10</v>
       </c>
       <c r="D26" s="7">
-        <v>11736</v>
+        <v>11142</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
       </c>
       <c r="I26" s="7">
-        <v>9979</v>
+        <v>9333</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
       </c>
       <c r="N26" s="7">
-        <v>21715</v>
+        <v>20475</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8783,7 +9362,7 @@
         <v>130</v>
       </c>
       <c r="D27" s="7">
-        <v>181341</v>
+        <v>367170</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -8798,7 +9377,7 @@
         <v>187</v>
       </c>
       <c r="I27" s="7">
-        <v>120679</v>
+        <v>111580</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -8813,7 +9392,7 @@
         <v>317</v>
       </c>
       <c r="N27" s="7">
-        <v>302020</v>
+        <v>478750</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -8836,43 +9415,43 @@
         <v>19</v>
       </c>
       <c r="D28" s="7">
-        <v>18275</v>
+        <v>16992</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
       </c>
       <c r="I28" s="7">
-        <v>9359</v>
+        <v>8533</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M28" s="7">
         <v>35</v>
       </c>
       <c r="N28" s="7">
-        <v>27634</v>
+        <v>25525</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>726</v>
+        <v>474</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>727</v>
@@ -8887,46 +9466,46 @@
         <v>16</v>
       </c>
       <c r="D29" s="7">
-        <v>14866</v>
+        <v>13586</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>728</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>619</v>
+        <v>729</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
       </c>
       <c r="I29" s="7">
-        <v>7192</v>
+        <v>6585</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="M29" s="7">
         <v>28</v>
       </c>
       <c r="N29" s="7">
-        <v>22057</v>
+        <v>20170</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8938,46 +9517,46 @@
         <v>25</v>
       </c>
       <c r="D30" s="7">
-        <v>23878</v>
+        <v>22503</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>157</v>
+        <v>738</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="H30" s="7">
         <v>25</v>
       </c>
       <c r="I30" s="7">
-        <v>15538</v>
+        <v>14355</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="M30" s="7">
         <v>50</v>
       </c>
       <c r="N30" s="7">
-        <v>39416</v>
+        <v>36858</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>405</v>
+        <v>743</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8989,46 +9568,46 @@
         <v>7</v>
       </c>
       <c r="D31" s="7">
-        <v>5935</v>
+        <v>5625</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>745</v>
+        <v>47</v>
       </c>
       <c r="H31" s="7">
         <v>9</v>
       </c>
       <c r="I31" s="7">
-        <v>5859</v>
+        <v>5339</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>21</v>
+        <v>748</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>567</v>
+        <v>749</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>369</v>
+        <v>750</v>
       </c>
       <c r="M31" s="7">
         <v>16</v>
       </c>
       <c r="N31" s="7">
-        <v>11794</v>
+        <v>10964</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>746</v>
+        <v>495</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9040,46 +9619,46 @@
         <v>6</v>
       </c>
       <c r="D32" s="7">
-        <v>6383</v>
+        <v>6132</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
       </c>
       <c r="I32" s="7">
-        <v>2115</v>
+        <v>1988</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>754</v>
+        <v>542</v>
       </c>
       <c r="M32" s="7">
         <v>10</v>
       </c>
       <c r="N32" s="7">
-        <v>8498</v>
+        <v>8121</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>639</v>
+        <v>758</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9091,7 +9670,7 @@
         <v>73</v>
       </c>
       <c r="D33" s="7">
-        <v>69336</v>
+        <v>64838</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>60</v>
@@ -9106,7 +9685,7 @@
         <v>66</v>
       </c>
       <c r="I33" s="7">
-        <v>40063</v>
+        <v>36800</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>60</v>
@@ -9121,7 +9700,7 @@
         <v>139</v>
       </c>
       <c r="N33" s="7">
-        <v>109399</v>
+        <v>101637</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>60</v>
@@ -9144,46 +9723,46 @@
         <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>607</v>
+        <v>584</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>757</v>
+        <v>691</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>238</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
       </c>
       <c r="I34" s="7">
-        <v>2299</v>
+        <v>2151</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>760</v>
+        <v>42</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
       </c>
       <c r="N34" s="7">
-        <v>2906</v>
+        <v>2734</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9204,37 +9783,37 @@
         <v>243</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>765</v>
+        <v>254</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
       </c>
       <c r="I35" s="7">
-        <v>471</v>
+        <v>441</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>238</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>214</v>
+        <v>768</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
       </c>
       <c r="N35" s="7">
-        <v>471</v>
+        <v>441</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>238</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>165</v>
+        <v>770</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9246,13 +9825,13 @@
         <v>5</v>
       </c>
       <c r="D36" s="7">
-        <v>3020</v>
+        <v>2958</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>155</v>
+        <v>308</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>239</v>
@@ -9261,31 +9840,31 @@
         <v>2</v>
       </c>
       <c r="I36" s="7">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>769</v>
+        <v>138</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>238</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="M36" s="7">
         <v>7</v>
       </c>
       <c r="N36" s="7">
-        <v>3924</v>
+        <v>3858</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>166</v>
+        <v>774</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9306,37 +9885,37 @@
         <v>243</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>765</v>
+        <v>254</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
       </c>
       <c r="I37" s="7">
-        <v>1725</v>
+        <v>1594</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>773</v>
+        <v>222</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
       </c>
       <c r="N37" s="7">
-        <v>1725</v>
+        <v>1594</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>334</v>
+        <v>133</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9345,49 +9924,49 @@
         <v>50</v>
       </c>
       <c r="C38" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="7">
-        <v>833</v>
+        <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>778</v>
+        <v>238</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>779</v>
+        <v>254</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
       </c>
       <c r="I38" s="7">
-        <v>1062</v>
+        <v>988</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>780</v>
+        <v>545</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>238</v>
       </c>
       <c r="L38" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="M38" s="7">
+        <v>2</v>
+      </c>
+      <c r="N38" s="7">
+        <v>988</v>
+      </c>
+      <c r="O38" s="7" t="s">
         <v>781</v>
       </c>
-      <c r="M38" s="7">
-        <v>3</v>
-      </c>
-      <c r="N38" s="7">
-        <v>1895</v>
-      </c>
-      <c r="O38" s="7" t="s">
+      <c r="P38" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>782</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>783</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9396,10 +9975,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39" s="7">
-        <v>4460</v>
+        <v>3542</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -9414,7 +9993,7 @@
         <v>12</v>
       </c>
       <c r="I39" s="7">
-        <v>6462</v>
+        <v>6073</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>60</v>
@@ -9426,10 +10005,10 @@
         <v>60</v>
       </c>
       <c r="M39" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N39" s="7">
-        <v>10922</v>
+        <v>9615</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -9443,55 +10022,53 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>255</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="D40" s="7">
-        <v>210276</v>
+        <v>0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>785</v>
+        <v>238</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>786</v>
+        <v>243</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>787</v>
+        <v>533</v>
       </c>
       <c r="H40" s="7">
-        <v>167</v>
-      </c>
-      <c r="I40" s="7">
-        <v>128981</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>788</v>
+        <v>256</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>789</v>
+        <v>256</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>790</v>
+        <v>256</v>
       </c>
       <c r="M40" s="7">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="N40" s="7">
-        <v>339257</v>
+        <v>0</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>791</v>
+        <v>238</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>487</v>
+        <v>243</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>792</v>
+        <v>533</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9500,49 +10077,47 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D41" s="7">
-        <v>65834</v>
+        <v>0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>134</v>
+        <v>238</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>793</v>
+        <v>243</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>794</v>
+        <v>533</v>
       </c>
       <c r="H41" s="7">
-        <v>85</v>
-      </c>
-      <c r="I41" s="7">
-        <v>61704</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>451</v>
+        <v>256</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>391</v>
+        <v>256</v>
       </c>
       <c r="M41" s="7">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="N41" s="7">
-        <v>127538</v>
+        <v>0</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>795</v>
+        <v>238</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>690</v>
+        <v>243</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>794</v>
+        <v>533</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9551,49 +10126,47 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="D42" s="7">
-        <v>120844</v>
+        <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>796</v>
+        <v>238</v>
       </c>
       <c r="F42" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="G42" s="7" t="s">
-        <v>797</v>
-      </c>
-      <c r="H42" s="7">
-        <v>138</v>
-      </c>
-      <c r="I42" s="7">
-        <v>102301</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>798</v>
-      </c>
       <c r="K42" s="7" t="s">
-        <v>36</v>
+        <v>256</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>799</v>
+        <v>256</v>
       </c>
       <c r="M42" s="7">
-        <v>251</v>
+        <v>0</v>
       </c>
       <c r="N42" s="7">
-        <v>223145</v>
+        <v>0</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>800</v>
+        <v>238</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>801</v>
+        <v>243</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>802</v>
+        <v>533</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9602,49 +10175,47 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D43" s="7">
-        <v>56391</v>
+        <v>0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>803</v>
+        <v>238</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>804</v>
+        <v>243</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>178</v>
+        <v>533</v>
       </c>
       <c r="H43" s="7">
-        <v>68</v>
-      </c>
-      <c r="I43" s="7">
-        <v>51133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>134</v>
+        <v>256</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>805</v>
+        <v>256</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>806</v>
+        <v>256</v>
       </c>
       <c r="M43" s="7">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="N43" s="7">
-        <v>107525</v>
+        <v>0</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>28</v>
+        <v>238</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>807</v>
+        <v>243</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>808</v>
+        <v>533</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9653,49 +10224,47 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D44" s="7">
-        <v>43409</v>
+        <v>746</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>809</v>
+        <v>239</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>810</v>
+        <v>534</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>811</v>
+        <v>60</v>
       </c>
       <c r="H44" s="7">
-        <v>51</v>
-      </c>
-      <c r="I44" s="7">
-        <v>41888</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>812</v>
+        <v>256</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>813</v>
+        <v>256</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>814</v>
+        <v>256</v>
       </c>
       <c r="M44" s="7">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="N44" s="7">
-        <v>85298</v>
+        <v>746</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>815</v>
+        <v>239</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>816</v>
+        <v>534</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>817</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9704,63 +10273,370 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7">
+        <v>746</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1</v>
+      </c>
+      <c r="N45" s="7">
+        <v>746</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>137</v>
+      </c>
+      <c r="D46" s="7">
+        <v>396140</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="H46" s="7">
+        <v>167</v>
+      </c>
+      <c r="I46" s="7">
+        <v>117261</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="M46" s="7">
+        <v>304</v>
+      </c>
+      <c r="N46" s="7">
+        <v>513401</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>64</v>
+      </c>
+      <c r="D47" s="7">
+        <v>63968</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="H47" s="7">
+        <v>85</v>
+      </c>
+      <c r="I47" s="7">
+        <v>57023</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="M47" s="7">
+        <v>149</v>
+      </c>
+      <c r="N47" s="7">
+        <v>120991</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>113</v>
+      </c>
+      <c r="D48" s="7">
+        <v>116092</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="H48" s="7">
+        <v>138</v>
+      </c>
+      <c r="I48" s="7">
+        <v>93919</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="M48" s="7">
+        <v>251</v>
+      </c>
+      <c r="N48" s="7">
+        <v>210012</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>48</v>
+      </c>
+      <c r="D49" s="7">
+        <v>52585</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="H49" s="7">
+        <v>68</v>
+      </c>
+      <c r="I49" s="7">
+        <v>46442</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M49" s="7">
+        <v>116</v>
+      </c>
+      <c r="N49" s="7">
+        <v>99027</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>33</v>
+      </c>
+      <c r="D50" s="7">
+        <v>41175</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="H50" s="7">
+        <v>51</v>
+      </c>
+      <c r="I50" s="7">
+        <v>38680</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="M50" s="7">
+        <v>84</v>
+      </c>
+      <c r="N50" s="7">
+        <v>79855</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>395</v>
       </c>
-      <c r="D45" s="7">
-        <v>496754</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D51" s="7">
+        <v>669961</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>509</v>
       </c>
-      <c r="I45" s="7">
-        <v>386007</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="I51" s="7">
+        <v>353325</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>904</v>
       </c>
-      <c r="N45" s="7">
-        <v>882762</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>298</v>
+      <c r="N51" s="7">
+        <v>1023286</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
